--- a/derivatives/hyp_2-2_main-effect_exploratory_indiv/full-data_right.xlsx
+++ b/derivatives/hyp_2-2_main-effect_exploratory_indiv/full-data_right.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameswyngaarden/Documents/GitHub/istart-eyeballs/derivatives/hyp_2-2_main-effect_exploratory_indiv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B88A761C-FB0E-6249-B382-D3AC12879AA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B379B115-FBAB-834F-A916-A005576A08A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16600" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="full_data" sheetId="11" r:id="rId1"/>
@@ -15089,7 +15089,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A12BE98D-118B-F446-8784-9A06800B199C}">
   <dimension ref="A1:BS56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+    <sheetView topLeftCell="R1" workbookViewId="0">
       <selection activeCell="AH53" sqref="U2:AH53"/>
     </sheetView>
   </sheetViews>
@@ -23981,74 +23981,74 @@
         <v>4.1465068053619325E-2</v>
       </c>
       <c r="U2">
-        <f>B2-B$55</f>
+        <f t="shared" ref="U2:U33" si="0">B2-B$55</f>
         <v>-0.30497092420101962</v>
       </c>
       <c r="V2">
-        <f>C2-C$55</f>
+        <f t="shared" ref="V2:V33" si="1">C2-C$55</f>
         <v>-0.13448417734062745</v>
       </c>
       <c r="W2">
-        <f>D2-D$55</f>
+        <f t="shared" ref="W2:W33" si="2">D2-D$55</f>
         <v>-4.9713927306470576E-2</v>
       </c>
       <c r="X2">
-        <f>E2-E$55</f>
+        <f t="shared" ref="X2:X33" si="3">E2-E$55</f>
         <v>6.7189478251862722E-2</v>
       </c>
       <c r="Y2">
-        <f>F2-F$55</f>
+        <f t="shared" ref="Y2:Y33" si="4">F2-F$55</f>
         <v>-6.8181367518039215E-2</v>
       </c>
       <c r="Z2">
-        <f>G2-G$55</f>
+        <f t="shared" ref="Z2:Z33" si="5">G2-G$55</f>
         <v>-0.12540536250201961</v>
       </c>
       <c r="AA2">
-        <f>H2-H$55</f>
+        <f t="shared" ref="AA2:AA33" si="6">H2-H$55</f>
         <v>2.7391967668607839E-2</v>
       </c>
       <c r="AB2">
-        <f>I2-I$55</f>
+        <f t="shared" ref="AB2:AB33" si="7">I2-I$55</f>
         <v>-0.10490467763686276</v>
       </c>
       <c r="AC2">
-        <f>J2-J$55</f>
+        <f t="shared" ref="AC2:AC33" si="8">J2-J$55</f>
         <v>-5.1530550445686274E-2</v>
       </c>
       <c r="AD2">
-        <f>K2-K$55</f>
+        <f t="shared" ref="AD2:AD33" si="9">K2-K$55</f>
         <v>0.25786860858294119</v>
       </c>
       <c r="AE2">
-        <f>L2-L$55</f>
+        <f t="shared" ref="AE2:AE33" si="10">L2-L$55</f>
         <v>-0.31249919044337254</v>
       </c>
       <c r="AF2">
-        <f>M2-M$55</f>
+        <f t="shared" ref="AF2:AF33" si="11">M2-M$55</f>
         <v>0.13406446616931372</v>
       </c>
       <c r="AG2">
-        <f>N2-N$55</f>
+        <f t="shared" ref="AG2:AG33" si="12">N2-N$55</f>
         <v>3.8117030895490206E-2</v>
       </c>
       <c r="AH2">
-        <f>O2-O$55</f>
+        <f t="shared" ref="AH2:AH33" si="13">O2-O$55</f>
         <v>0.33742610039588233</v>
       </c>
       <c r="AJ2">
         <v>1</v>
       </c>
       <c r="AK2">
-        <f>Q2-Q$55</f>
+        <f t="shared" ref="AK2:AK33" si="14">Q2-Q$55</f>
         <v>1.7277317331629068E-2</v>
       </c>
       <c r="AL2">
-        <f>R2-R$55</f>
+        <f t="shared" ref="AL2:AL33" si="15">R2-R$55</f>
         <v>-26.275932234154972</v>
       </c>
       <c r="AM2">
-        <f>S2-S$55</f>
+        <f t="shared" ref="AM2:AM33" si="16">S2-S$55</f>
         <v>3.847965232963535E-2</v>
       </c>
     </row>
@@ -24108,74 +24108,74 @@
         <v>9.8277611656034325E-2</v>
       </c>
       <c r="U3">
-        <f>B3-B$55</f>
+        <f t="shared" si="0"/>
         <v>-6.6640684301019618E-2</v>
       </c>
       <c r="V3">
-        <f>C3-C$55</f>
+        <f t="shared" si="1"/>
         <v>-0.31360063424062745</v>
       </c>
       <c r="W3">
-        <f>D3-D$55</f>
+        <f t="shared" si="2"/>
         <v>-0.3388469751064706</v>
       </c>
       <c r="X3">
-        <f>E3-E$55</f>
+        <f t="shared" si="3"/>
         <v>-1.0092781548137281E-2</v>
       </c>
       <c r="Y3">
-        <f>F3-F$55</f>
+        <f t="shared" si="4"/>
         <v>0.33311012538196078</v>
       </c>
       <c r="Z3">
-        <f>G3-G$55</f>
+        <f t="shared" si="5"/>
         <v>-0.1573485402020196</v>
       </c>
       <c r="AA3">
-        <f>H3-H$55</f>
+        <f t="shared" si="6"/>
         <v>0.13013597379860783</v>
       </c>
       <c r="AB3">
-        <f>I3-I$55</f>
+        <f t="shared" si="7"/>
         <v>6.233549731372301E-4</v>
       </c>
       <c r="AC3">
-        <f>J3-J$55</f>
+        <f t="shared" si="8"/>
         <v>-0.58851980514568636</v>
       </c>
       <c r="AD3">
-        <f>K3-K$55</f>
+        <f t="shared" si="9"/>
         <v>-0.39350367341705883</v>
       </c>
       <c r="AE3">
-        <f>L3-L$55</f>
+        <f t="shared" si="10"/>
         <v>-1.0328375177433726</v>
       </c>
       <c r="AF3">
-        <f>M3-M$55</f>
+        <f t="shared" si="11"/>
         <v>-5.2730559740686272E-2</v>
       </c>
       <c r="AG3">
-        <f>N3-N$55</f>
+        <f t="shared" si="12"/>
         <v>0.25228165675549019</v>
       </c>
       <c r="AH3">
-        <f>O3-O$55</f>
+        <f t="shared" si="13"/>
         <v>5.7058185958823449E-3</v>
       </c>
       <c r="AJ3">
         <v>1</v>
       </c>
       <c r="AK3">
-        <f>Q3-Q$55</f>
+        <f t="shared" si="14"/>
         <v>-7.3538411171267318E-3</v>
       </c>
       <c r="AL3">
-        <f>R3-R$55</f>
+        <f t="shared" si="15"/>
         <v>-17.59635992397267</v>
       </c>
       <c r="AM3">
-        <f>S3-S$55</f>
+        <f t="shared" si="16"/>
         <v>9.529219593205035E-2</v>
       </c>
     </row>
@@ -24235,74 +24235,74 @@
         <v>-6.0827453298250678E-2</v>
       </c>
       <c r="U4">
-        <f>B4-B$55</f>
+        <f t="shared" si="0"/>
         <v>0.1293639092989804</v>
       </c>
       <c r="V4">
-        <f>C4-C$55</f>
+        <f t="shared" si="1"/>
         <v>1.3663198089372539E-2</v>
       </c>
       <c r="W4">
-        <f>D4-D$55</f>
+        <f t="shared" si="2"/>
         <v>0.29236492429352945</v>
       </c>
       <c r="X4">
-        <f>E4-E$55</f>
+        <f t="shared" si="3"/>
         <v>0.41296971415186268</v>
       </c>
       <c r="Y4">
-        <f>F4-F$55</f>
+        <f t="shared" si="4"/>
         <v>0.42693269788196075</v>
       </c>
       <c r="Z4">
-        <f>G4-G$55</f>
+        <f t="shared" si="5"/>
         <v>3.5502624197980392E-2</v>
       </c>
       <c r="AA4">
-        <f>H4-H$55</f>
+        <f t="shared" si="6"/>
         <v>-0.12219428033139218</v>
       </c>
       <c r="AB4">
-        <f>I4-I$55</f>
+        <f t="shared" si="7"/>
         <v>-1.656790036862775E-3</v>
       </c>
       <c r="AC4">
-        <f>J4-J$55</f>
+        <f t="shared" si="8"/>
         <v>0.10017701322431373</v>
       </c>
       <c r="AD4">
-        <f>K4-K$55</f>
+        <f t="shared" si="9"/>
         <v>1.0432938228829411</v>
       </c>
       <c r="AE4">
-        <f>L4-L$55</f>
+        <f t="shared" si="10"/>
         <v>0.39127339605662748</v>
       </c>
       <c r="AF4">
-        <f>M4-M$55</f>
+        <f t="shared" si="11"/>
         <v>0.52598354345931375</v>
       </c>
       <c r="AG4">
-        <f>N4-N$55</f>
+        <f t="shared" si="12"/>
         <v>-0.36264532364450974</v>
       </c>
       <c r="AH4">
-        <f>O4-O$55</f>
+        <f t="shared" si="13"/>
         <v>0.39348340529588233</v>
       </c>
       <c r="AJ4">
         <v>1</v>
       </c>
       <c r="AK4">
-        <f>Q4-Q$55</f>
+        <f t="shared" si="14"/>
         <v>2.4695387320118164E-2</v>
       </c>
       <c r="AL4">
-        <f>R4-R$55</f>
+        <f t="shared" si="15"/>
         <v>-14.922773669033271</v>
       </c>
       <c r="AM4">
-        <f>S4-S$55</f>
+        <f t="shared" si="16"/>
         <v>-6.3812869022234653E-2</v>
       </c>
     </row>
@@ -24362,74 +24362,74 @@
         <v>-0.10136360893374369</v>
       </c>
       <c r="U5">
-        <f>B5-B$55</f>
+        <f t="shared" si="0"/>
         <v>-0.3536543758010196</v>
       </c>
       <c r="V5">
-        <f>C5-C$55</f>
+        <f t="shared" si="1"/>
         <v>-0.5800073066406275</v>
       </c>
       <c r="W5">
-        <f>D5-D$55</f>
+        <f t="shared" si="2"/>
         <v>-0.37162508760647062</v>
       </c>
       <c r="X5">
-        <f>E5-E$55</f>
+        <f t="shared" si="3"/>
         <v>-0.17055781554813729</v>
       </c>
       <c r="Y5">
-        <f>F5-F$55</f>
+        <f t="shared" si="4"/>
         <v>-0.2057265998180392</v>
       </c>
       <c r="Z5">
-        <f>G5-G$55</f>
+        <f t="shared" si="5"/>
         <v>-0.51163576320201964</v>
       </c>
       <c r="AA5">
-        <f>H5-H$55</f>
+        <f t="shared" si="6"/>
         <v>-0.94382870163139221</v>
       </c>
       <c r="AB5">
-        <f>I5-I$55</f>
+        <f t="shared" si="7"/>
         <v>-0.4262103540368628</v>
       </c>
       <c r="AC5">
-        <f>J5-J$55</f>
+        <f t="shared" si="8"/>
         <v>3.3882275094313727E-2</v>
       </c>
       <c r="AD5">
-        <f>K5-K$55</f>
+        <f t="shared" si="9"/>
         <v>-0.50123849791705877</v>
       </c>
       <c r="AE5">
-        <f>L5-L$55</f>
+        <f t="shared" si="10"/>
         <v>-0.90379736474337258</v>
       </c>
       <c r="AF5">
-        <f>M5-M$55</f>
+        <f t="shared" si="11"/>
         <v>9.9843676119313732E-2</v>
       </c>
       <c r="AG5">
-        <f>N5-N$55</f>
+        <f t="shared" si="12"/>
         <v>0.31900539945549022</v>
       </c>
       <c r="AH5">
-        <f>O5-O$55</f>
+        <f t="shared" si="13"/>
         <v>0.38168802589588235</v>
       </c>
       <c r="AJ5">
         <v>1</v>
       </c>
       <c r="AK5">
-        <f>Q5-Q$55</f>
+        <f t="shared" si="14"/>
         <v>8.2914402945806678E-3</v>
       </c>
       <c r="AL5">
-        <f>R5-R$55</f>
+        <f t="shared" si="15"/>
         <v>20.563195874423727</v>
       </c>
       <c r="AM5">
-        <f>S5-S$55</f>
+        <f t="shared" si="16"/>
         <v>-0.10434902465772766</v>
       </c>
     </row>
@@ -24489,74 +24489,74 @@
         <v>-3.2741764118780686E-2</v>
       </c>
       <c r="U6">
-        <f>B6-B$55</f>
+        <f t="shared" si="0"/>
         <v>0.5946538794989803</v>
       </c>
       <c r="V6">
-        <f>C6-C$55</f>
+        <f t="shared" si="1"/>
         <v>0.55081850935937249</v>
       </c>
       <c r="W6">
-        <f>D6-D$55</f>
+        <f t="shared" si="2"/>
         <v>0.38712105589352941</v>
       </c>
       <c r="X6">
-        <f>E6-E$55</f>
+        <f t="shared" si="3"/>
         <v>0.6303825632518627</v>
       </c>
       <c r="Y6">
-        <f>F6-F$55</f>
+        <f t="shared" si="4"/>
         <v>0.31815769188196075</v>
       </c>
       <c r="Z6">
-        <f>G6-G$55</f>
+        <f t="shared" si="5"/>
         <v>0.17227115910798038</v>
       </c>
       <c r="AA6">
-        <f>H6-H$55</f>
+        <f t="shared" si="6"/>
         <v>-0.13285752893139213</v>
       </c>
       <c r="AB6">
-        <f>I6-I$55</f>
+        <f t="shared" si="7"/>
         <v>-0.22556126213686276</v>
       </c>
       <c r="AC6">
-        <f>J6-J$55</f>
+        <f t="shared" si="8"/>
         <v>0.6382445138543138</v>
       </c>
       <c r="AD6">
-        <f>K6-K$55</f>
+        <f t="shared" si="9"/>
         <v>0.1850883524829412</v>
       </c>
       <c r="AE6">
-        <f>L6-L$55</f>
+        <f t="shared" si="10"/>
         <v>0.75278796545662752</v>
       </c>
       <c r="AF6">
-        <f>M6-M$55</f>
+        <f t="shared" si="11"/>
         <v>0.52849186585931374</v>
       </c>
       <c r="AG6">
-        <f>N6-N$55</f>
+        <f t="shared" si="12"/>
         <v>5.1212138195490212E-2</v>
       </c>
       <c r="AH6">
-        <f>O6-O$55</f>
+        <f t="shared" si="13"/>
         <v>1.0699341739958823</v>
       </c>
       <c r="AJ6">
         <v>1</v>
       </c>
       <c r="AK6">
-        <f>Q6-Q$55</f>
+        <f t="shared" si="14"/>
         <v>8.1043599410822679E-3</v>
       </c>
       <c r="AL6">
-        <f>R6-R$55</f>
+        <f t="shared" si="15"/>
         <v>4.8688446781347343</v>
       </c>
       <c r="AM6">
-        <f>S6-S$55</f>
+        <f t="shared" si="16"/>
         <v>-3.5727179842764661E-2</v>
       </c>
     </row>
@@ -24616,74 +24616,74 @@
         <v>9.6569663890344326E-2</v>
       </c>
       <c r="U7">
-        <f>B7-B$55</f>
+        <f t="shared" si="0"/>
         <v>-0.52929761630101968</v>
       </c>
       <c r="V7">
-        <f>C7-C$55</f>
+        <f t="shared" si="1"/>
         <v>-0.4053510628406275</v>
       </c>
       <c r="W7">
-        <f>D7-D$55</f>
+        <f t="shared" si="2"/>
         <v>-0.3461053865064706</v>
       </c>
       <c r="X7">
-        <f>E7-E$55</f>
+        <f t="shared" si="3"/>
         <v>0.22608727446186272</v>
       </c>
       <c r="Y7">
-        <f>F7-F$55</f>
+        <f t="shared" si="4"/>
         <v>-5.8961668518039217E-2</v>
       </c>
       <c r="Z7">
-        <f>G7-G$55</f>
+        <f t="shared" si="5"/>
         <v>-0.38391009840201962</v>
       </c>
       <c r="AA7">
-        <f>H7-H$55</f>
+        <f t="shared" si="6"/>
         <v>9.4459453458607845E-2</v>
       </c>
       <c r="AB7">
-        <f>I7-I$55</f>
+        <f t="shared" si="7"/>
         <v>-0.31010099623686277</v>
       </c>
       <c r="AC7">
-        <f>J7-J$55</f>
+        <f t="shared" si="8"/>
         <v>-0.15897940454568626</v>
       </c>
       <c r="AD7">
-        <f>K7-K$55</f>
+        <f t="shared" si="9"/>
         <v>-0.33143576861705881</v>
       </c>
       <c r="AE7">
-        <f>L7-L$55</f>
+        <f t="shared" si="10"/>
         <v>0.24740658085662748</v>
       </c>
       <c r="AF7">
-        <f>M7-M$55</f>
+        <f t="shared" si="11"/>
         <v>0.34378949935931374</v>
       </c>
       <c r="AG7">
-        <f>N7-N$55</f>
+        <f t="shared" si="12"/>
         <v>0.39339070645549024</v>
       </c>
       <c r="AH7">
-        <f>O7-O$55</f>
+        <f t="shared" si="13"/>
         <v>-9.2633082204117645E-2</v>
       </c>
       <c r="AJ7">
         <v>1</v>
       </c>
       <c r="AK7">
-        <f>Q7-Q$55</f>
+        <f t="shared" si="14"/>
         <v>6.4919351180106762E-4</v>
       </c>
       <c r="AL7">
-        <f>R7-R$55</f>
+        <f t="shared" si="15"/>
         <v>-24.947187731533269</v>
       </c>
       <c r="AM7">
-        <f>S7-S$55</f>
+        <f t="shared" si="16"/>
         <v>9.3584248166360351E-2</v>
       </c>
     </row>
@@ -24743,74 +24743,74 @@
         <v>0.1312779765422743</v>
       </c>
       <c r="U8">
-        <f>B8-B$55</f>
+        <f t="shared" si="0"/>
         <v>-0.48850539560101958</v>
       </c>
       <c r="V8">
-        <f>C8-C$55</f>
+        <f t="shared" si="1"/>
         <v>-0.64069896244062752</v>
       </c>
       <c r="W8">
-        <f>D8-D$55</f>
+        <f t="shared" si="2"/>
         <v>-0.73684440930647055</v>
       </c>
       <c r="X8">
-        <f>E8-E$55</f>
+        <f t="shared" si="3"/>
         <v>-0.27009741204813731</v>
       </c>
       <c r="Y8">
-        <f>F8-F$55</f>
+        <f t="shared" si="4"/>
         <v>-0.63770449081803915</v>
       </c>
       <c r="Z8">
-        <f>G8-G$55</f>
+        <f t="shared" si="5"/>
         <v>-1.0676568672020195</v>
       </c>
       <c r="AA8">
-        <f>H8-H$55</f>
+        <f t="shared" si="6"/>
         <v>-0.48940099773139212</v>
       </c>
       <c r="AB8">
-        <f>I8-I$55</f>
+        <f t="shared" si="7"/>
         <v>-0.37863254693686277</v>
       </c>
       <c r="AC8">
-        <f>J8-J$55</f>
+        <f t="shared" si="8"/>
         <v>-0.50912266864568623</v>
       </c>
       <c r="AD8">
-        <f>K8-K$55</f>
+        <f t="shared" si="9"/>
         <v>-1.9029803421170588</v>
       </c>
       <c r="AE8">
-        <f>L8-L$55</f>
+        <f t="shared" si="10"/>
         <v>-0.85622823824337246</v>
       </c>
       <c r="AF8">
-        <f>M8-M$55</f>
+        <f t="shared" si="11"/>
         <v>-0.35557679044068624</v>
       </c>
       <c r="AG8">
-        <f>N8-N$55</f>
+        <f t="shared" si="12"/>
         <v>-0.47551156704450981</v>
       </c>
       <c r="AH8">
-        <f>O8-O$55</f>
+        <f t="shared" si="13"/>
         <v>-0.78470191110411769</v>
       </c>
       <c r="AJ8">
         <v>1</v>
       </c>
       <c r="AK8">
-        <f>Q8-Q$55</f>
+        <f t="shared" si="14"/>
         <v>-2.1551454202363308E-3</v>
       </c>
       <c r="AL8">
-        <f>R8-R$55</f>
+        <f t="shared" si="15"/>
         <v>-19.030599901943468</v>
       </c>
       <c r="AM8">
-        <f>S8-S$55</f>
+        <f t="shared" si="16"/>
         <v>0.12829256081829032</v>
       </c>
     </row>
@@ -24870,74 +24870,74 @@
         <v>-8.3638320429988686E-2</v>
       </c>
       <c r="U9">
-        <f>B9-B$55</f>
+        <f t="shared" si="0"/>
         <v>0.26898371339898042</v>
       </c>
       <c r="V9">
-        <f>C9-C$55</f>
+        <f t="shared" si="1"/>
         <v>-0.12409135374062746</v>
       </c>
       <c r="W9">
-        <f>D9-D$55</f>
+        <f t="shared" si="2"/>
         <v>0.38001862209352943</v>
       </c>
       <c r="X9">
-        <f>E9-E$55</f>
+        <f t="shared" si="3"/>
         <v>4.1586236851862718E-2</v>
       </c>
       <c r="Y9">
-        <f>F9-F$55</f>
+        <f t="shared" si="4"/>
         <v>0.41745749358196077</v>
       </c>
       <c r="Z9">
-        <f>G9-G$55</f>
+        <f t="shared" si="5"/>
         <v>0.14791457231098037</v>
       </c>
       <c r="AA9">
-        <f>H9-H$55</f>
+        <f t="shared" si="6"/>
         <v>-0.60914982783139215</v>
       </c>
       <c r="AB9">
-        <f>I9-I$55</f>
+        <f t="shared" si="7"/>
         <v>-0.97915865563686277</v>
       </c>
       <c r="AC9">
-        <f>J9-J$55</f>
+        <f t="shared" si="8"/>
         <v>0.44520953735431373</v>
       </c>
       <c r="AD9">
-        <f>K9-K$55</f>
+        <f t="shared" si="9"/>
         <v>-0.77080806971705873</v>
       </c>
       <c r="AE9">
-        <f>L9-L$55</f>
+        <f t="shared" si="10"/>
         <v>0.68752532805662747</v>
       </c>
       <c r="AF9">
-        <f>M9-M$55</f>
+        <f t="shared" si="11"/>
         <v>-0.15672716874068629</v>
       </c>
       <c r="AG9">
-        <f>N9-N$55</f>
+        <f t="shared" si="12"/>
         <v>1.0507295882554901</v>
       </c>
       <c r="AH9">
-        <f>O9-O$55</f>
+        <f t="shared" si="13"/>
         <v>0.39345100799588234</v>
       </c>
       <c r="AJ9">
         <v>1</v>
       </c>
       <c r="AK9">
-        <f>Q9-Q$55</f>
+        <f t="shared" si="14"/>
         <v>-8.6184942857453328E-3</v>
       </c>
       <c r="AL9">
-        <f>R9-R$55</f>
+        <f t="shared" si="15"/>
         <v>25.89251105997063</v>
       </c>
       <c r="AM9">
-        <f>S9-S$55</f>
+        <f t="shared" si="16"/>
         <v>-8.6623736153972661E-2</v>
       </c>
     </row>
@@ -24997,74 +24997,74 @@
         <v>-0.13110262689558139</v>
       </c>
       <c r="U10">
-        <f>B10-B$55</f>
+        <f t="shared" si="0"/>
         <v>-0.25518236360101959</v>
       </c>
       <c r="V10">
-        <f>C10-C$55</f>
+        <f t="shared" si="1"/>
         <v>-0.57623120314062748</v>
       </c>
       <c r="W10">
-        <f>D10-D$55</f>
+        <f t="shared" si="2"/>
         <v>-9.0174585406470567E-2</v>
       </c>
       <c r="X10">
-        <f>E10-E$55</f>
+        <f t="shared" si="3"/>
         <v>0.24624535174186274</v>
       </c>
       <c r="Y10">
-        <f>F10-F$55</f>
+        <f t="shared" si="4"/>
         <v>0.2809810268819608</v>
       </c>
       <c r="Z10">
-        <f>G10-G$55</f>
+        <f t="shared" si="5"/>
         <v>0.4105443593979804</v>
       </c>
       <c r="AA10">
-        <f>H10-H$55</f>
+        <f t="shared" si="6"/>
         <v>-0.55892818893139218</v>
       </c>
       <c r="AB10">
-        <f>I10-I$55</f>
+        <f t="shared" si="7"/>
         <v>-0.75917472293686283</v>
       </c>
       <c r="AC10">
-        <f>J10-J$55</f>
+        <f t="shared" si="8"/>
         <v>1.8103812974313724E-2</v>
       </c>
       <c r="AD10">
-        <f>K10-K$55</f>
+        <f t="shared" si="9"/>
         <v>0.1388865294829412</v>
       </c>
       <c r="AE10">
-        <f>L10-L$55</f>
+        <f t="shared" si="10"/>
         <v>1.480162238662748E-2</v>
       </c>
       <c r="AF10">
-        <f>M10-M$55</f>
+        <f t="shared" si="11"/>
         <v>-0.51187396744068625</v>
       </c>
       <c r="AG10">
-        <f>N10-N$55</f>
+        <f t="shared" si="12"/>
         <v>-0.51422824234450981</v>
       </c>
       <c r="AH10">
-        <f>O10-O$55</f>
+        <f t="shared" si="13"/>
         <v>0.88270109939588237</v>
       </c>
       <c r="AJ10">
         <v>1</v>
       </c>
       <c r="AK10">
-        <f>Q10-Q$55</f>
+        <f t="shared" si="14"/>
         <v>-5.3952688113877312E-3</v>
       </c>
       <c r="AL10">
-        <f>R10-R$55</f>
+        <f t="shared" si="15"/>
         <v>30.288705517978428</v>
       </c>
       <c r="AM10">
-        <f>S10-S$55</f>
+        <f t="shared" si="16"/>
         <v>-0.13408804261956536</v>
       </c>
     </row>
@@ -25124,74 +25124,74 @@
         <v>-6.1099651518582682E-2</v>
       </c>
       <c r="U11">
-        <f>B11-B$55</f>
+        <f t="shared" si="0"/>
         <v>1.1566470098039062E-4</v>
       </c>
       <c r="V11">
-        <f>C11-C$55</f>
+        <f t="shared" si="1"/>
         <v>0.54721796245937249</v>
       </c>
       <c r="W11">
-        <f>D11-D$55</f>
+        <f t="shared" si="2"/>
         <v>0.25188389129352945</v>
       </c>
       <c r="X11">
-        <f>E11-E$55</f>
+        <f t="shared" si="3"/>
         <v>0.16354905270686271</v>
       </c>
       <c r="Y11">
-        <f>F11-F$55</f>
+        <f t="shared" si="4"/>
         <v>1.0693799026819608</v>
       </c>
       <c r="Z11">
-        <f>G11-G$55</f>
+        <f t="shared" si="5"/>
         <v>0.33549205649798042</v>
       </c>
       <c r="AA11">
-        <f>H11-H$55</f>
+        <f t="shared" si="6"/>
         <v>-0.34061908353139214</v>
       </c>
       <c r="AB11">
-        <f>I11-I$55</f>
+        <f t="shared" si="7"/>
         <v>-0.54565974373686277</v>
       </c>
       <c r="AC11">
-        <f>J11-J$55</f>
+        <f t="shared" si="8"/>
         <v>0.65085643115431369</v>
       </c>
       <c r="AD11">
-        <f>K11-K$55</f>
+        <f t="shared" si="9"/>
         <v>-0.6801482325170588</v>
       </c>
       <c r="AE11">
-        <f>L11-L$55</f>
+        <f t="shared" si="10"/>
         <v>0.26053596975662752</v>
       </c>
       <c r="AF11">
-        <f>M11-M$55</f>
+        <f t="shared" si="11"/>
         <v>0.50668174645931374</v>
       </c>
       <c r="AG11">
-        <f>N11-N$55</f>
+        <f t="shared" si="12"/>
         <v>0.29086495455549022</v>
       </c>
       <c r="AH11">
-        <f>O11-O$55</f>
+        <f t="shared" si="13"/>
         <v>0.29874899799588234</v>
       </c>
       <c r="AJ11">
         <v>1</v>
       </c>
       <c r="AK11">
-        <f>Q11-Q$55</f>
+        <f t="shared" si="14"/>
         <v>-4.6312490240762328E-3</v>
       </c>
       <c r="AL11">
-        <f>R11-R$55</f>
+        <f t="shared" si="15"/>
         <v>16.815995862216724</v>
       </c>
       <c r="AM11">
-        <f>S11-S$55</f>
+        <f t="shared" si="16"/>
         <v>-6.4085067242566657E-2</v>
       </c>
     </row>
@@ -25251,74 +25251,74 @@
         <v>-0.10510445042092069</v>
       </c>
       <c r="U12">
-        <f>B12-B$55</f>
+        <f t="shared" si="0"/>
         <v>-8.8782954471019609E-2</v>
       </c>
       <c r="V12">
-        <f>C12-C$55</f>
+        <f t="shared" si="1"/>
         <v>-0.40389737934062742</v>
       </c>
       <c r="W12">
-        <f>D12-D$55</f>
+        <f t="shared" si="2"/>
         <v>-0.44210653890647056</v>
       </c>
       <c r="X12">
-        <f>E12-E$55</f>
+        <f t="shared" si="3"/>
         <v>0.39402012075186271</v>
       </c>
       <c r="Y12">
-        <f>F12-F$55</f>
+        <f t="shared" si="4"/>
         <v>0.5503174773819608</v>
       </c>
       <c r="Z12">
-        <f>G12-G$55</f>
+        <f t="shared" si="5"/>
         <v>0.32841584939798041</v>
       </c>
       <c r="AA12">
-        <f>H12-H$55</f>
+        <f t="shared" si="6"/>
         <v>9.0897555686078324E-3</v>
       </c>
       <c r="AB12">
-        <f>I12-I$55</f>
+        <f t="shared" si="7"/>
         <v>-3.9686305716862776E-2</v>
       </c>
       <c r="AC12">
-        <f>J12-J$55</f>
+        <f t="shared" si="8"/>
         <v>0.35217136895431372</v>
       </c>
       <c r="AD12">
-        <f>K12-K$55</f>
+        <f t="shared" si="9"/>
         <v>0.39171381098294117</v>
       </c>
       <c r="AE12">
-        <f>L12-L$55</f>
+        <f t="shared" si="10"/>
         <v>-0.68339247834337247</v>
       </c>
       <c r="AF12">
-        <f>M12-M$55</f>
+        <f t="shared" si="11"/>
         <v>0.2673951005293137</v>
       </c>
       <c r="AG12">
-        <f>N12-N$55</f>
+        <f t="shared" si="12"/>
         <v>-5.3584098544509795E-2</v>
       </c>
       <c r="AH12">
-        <f>O12-O$55</f>
+        <f t="shared" si="13"/>
         <v>-0.38464144560411762</v>
       </c>
       <c r="AJ12">
         <v>1</v>
       </c>
       <c r="AK12">
-        <f>Q12-Q$55</f>
+        <f t="shared" si="14"/>
         <v>5.5424945666363665E-3</v>
       </c>
       <c r="AL12">
-        <f>R12-R$55</f>
+        <f t="shared" si="15"/>
         <v>29.439950635165928</v>
       </c>
       <c r="AM12">
-        <f>S12-S$55</f>
+        <f t="shared" si="16"/>
         <v>-0.10808986614490466</v>
       </c>
     </row>
@@ -25378,74 +25378,74 @@
         <v>-2.0070882652976907E-3</v>
       </c>
       <c r="U13">
-        <f>B13-B$55</f>
+        <f t="shared" si="0"/>
         <v>0.9287921674989803</v>
       </c>
       <c r="V13">
-        <f>C13-C$55</f>
+        <f t="shared" si="1"/>
         <v>0.9125123529593725</v>
       </c>
       <c r="W13">
-        <f>D13-D$55</f>
+        <f t="shared" si="2"/>
         <v>0.89266109539352945</v>
       </c>
       <c r="X13">
-        <f>E13-E$55</f>
+        <f t="shared" si="3"/>
         <v>0.43269180535186269</v>
       </c>
       <c r="Y13">
-        <f>F13-F$55</f>
+        <f t="shared" si="4"/>
         <v>0.98140401668196087</v>
       </c>
       <c r="Z13">
-        <f>G13-G$55</f>
+        <f t="shared" si="5"/>
         <v>0.82495099789798043</v>
       </c>
       <c r="AA13">
-        <f>H13-H$55</f>
+        <f t="shared" si="6"/>
         <v>0.83223354256860782</v>
       </c>
       <c r="AB13">
-        <f>I13-I$55</f>
+        <f t="shared" si="7"/>
         <v>0.88458915626313717</v>
       </c>
       <c r="AC13">
-        <f>J13-J$55</f>
+        <f t="shared" si="8"/>
         <v>1.2709334785543138</v>
       </c>
       <c r="AD13">
-        <f>K13-K$55</f>
+        <f t="shared" si="9"/>
         <v>0.58477147328294121</v>
       </c>
       <c r="AE13">
-        <f>L13-L$55</f>
+        <f t="shared" si="10"/>
         <v>0.53445518675662751</v>
       </c>
       <c r="AF13">
-        <f>M13-M$55</f>
+        <f t="shared" si="11"/>
         <v>1.8541692622593138</v>
       </c>
       <c r="AG13">
-        <f>N13-N$55</f>
+        <f t="shared" si="12"/>
         <v>1.9814724183554902</v>
       </c>
       <c r="AH13">
-        <f>O13-O$55</f>
+        <f t="shared" si="13"/>
         <v>2.4078610374958824</v>
       </c>
       <c r="AJ13">
         <v>1</v>
       </c>
       <c r="AK13">
-        <f>Q13-Q$55</f>
+        <f t="shared" si="14"/>
         <v>-5.904634273154432E-3</v>
       </c>
       <c r="AL13">
-        <f>R13-R$55</f>
+        <f t="shared" si="15"/>
         <v>-12.371290514736375</v>
       </c>
       <c r="AM13">
-        <f>S13-S$55</f>
+        <f t="shared" si="16"/>
         <v>-4.9925039892816658E-3</v>
       </c>
     </row>
@@ -25505,74 +25505,74 @@
         <v>-4.5603187056057676E-2</v>
       </c>
       <c r="U14">
-        <f>B14-B$55</f>
+        <f t="shared" si="0"/>
         <v>0.35961271019898039</v>
       </c>
       <c r="V14">
-        <f>C14-C$55</f>
+        <f t="shared" si="1"/>
         <v>0.31449649875937258</v>
       </c>
       <c r="W14">
-        <f>D14-D$55</f>
+        <f t="shared" si="2"/>
         <v>0.38227228329352941</v>
       </c>
       <c r="X14">
-        <f>E14-E$55</f>
+        <f t="shared" si="3"/>
         <v>0.19765654682186273</v>
       </c>
       <c r="Y14">
-        <f>F14-F$55</f>
+        <f t="shared" si="4"/>
         <v>0.41949446998196077</v>
       </c>
       <c r="Z14">
-        <f>G14-G$55</f>
+        <f t="shared" si="5"/>
         <v>0.16201645254798039</v>
       </c>
       <c r="AA14">
-        <f>H14-H$55</f>
+        <f t="shared" si="6"/>
         <v>-0.50947057523139216</v>
       </c>
       <c r="AB14">
-        <f>I14-I$55</f>
+        <f t="shared" si="7"/>
         <v>-0.14674621053686276</v>
       </c>
       <c r="AC14">
-        <f>J14-J$55</f>
+        <f t="shared" si="8"/>
         <v>0.39429395645431375</v>
       </c>
       <c r="AD14">
-        <f>K14-K$55</f>
+        <f t="shared" si="9"/>
         <v>-0.54335922121705871</v>
       </c>
       <c r="AE14">
-        <f>L14-L$55</f>
+        <f t="shared" si="10"/>
         <v>0.15280326779662748</v>
       </c>
       <c r="AF14">
-        <f>M14-M$55</f>
+        <f t="shared" si="11"/>
         <v>1.0365045792593137</v>
       </c>
       <c r="AG14">
-        <f>N14-N$55</f>
+        <f t="shared" si="12"/>
         <v>3.8393703355490208E-2</v>
       </c>
       <c r="AH14">
-        <f>O14-O$55</f>
+        <f t="shared" si="13"/>
         <v>0.48548079519588233</v>
       </c>
       <c r="AJ14">
         <v>1</v>
       </c>
       <c r="AK14">
-        <f>Q14-Q$55</f>
+        <f t="shared" si="14"/>
         <v>-5.7390236989686323E-3</v>
       </c>
       <c r="AL14">
-        <f>R14-R$55</f>
+        <f t="shared" si="15"/>
         <v>15.331636121005827</v>
       </c>
       <c r="AM14">
-        <f>S14-S$55</f>
+        <f t="shared" si="16"/>
         <v>-4.8588602780041651E-2</v>
       </c>
     </row>
@@ -25632,74 +25632,74 @@
         <v>-0.13462628713017918</v>
       </c>
       <c r="U15">
-        <f>B15-B$55</f>
+        <f t="shared" si="0"/>
         <v>-0.55062550010101963</v>
       </c>
       <c r="V15">
-        <f>C15-C$55</f>
+        <f t="shared" si="1"/>
         <v>-0.65421567074062748</v>
       </c>
       <c r="W15">
-        <f>D15-D$55</f>
+        <f t="shared" si="2"/>
         <v>-0.75081452560647055</v>
       </c>
       <c r="X15">
-        <f>E15-E$55</f>
+        <f t="shared" si="3"/>
         <v>-0.42597098864813721</v>
       </c>
       <c r="Y15">
-        <f>F15-F$55</f>
+        <f t="shared" si="4"/>
         <v>-0.3293301672180392</v>
       </c>
       <c r="Z15">
-        <f>G15-G$55</f>
+        <f t="shared" si="5"/>
         <v>-3.5520626020196233E-3</v>
       </c>
       <c r="AA15">
-        <f>H15-H$55</f>
+        <f t="shared" si="6"/>
         <v>0.59719182026860784</v>
       </c>
       <c r="AB15">
-        <f>I15-I$55</f>
+        <f t="shared" si="7"/>
         <v>-0.30592217503686281</v>
       </c>
       <c r="AC15">
-        <f>J15-J$55</f>
+        <f t="shared" si="8"/>
         <v>-1.1443107744456862</v>
       </c>
       <c r="AD15">
-        <f>K15-K$55</f>
+        <f t="shared" si="9"/>
         <v>0.65623056058294127</v>
       </c>
       <c r="AE15">
-        <f>L15-L$55</f>
+        <f t="shared" si="10"/>
         <v>-1.3216723577433724</v>
       </c>
       <c r="AF15">
-        <f>M15-M$55</f>
+        <f t="shared" si="11"/>
         <v>-1.0576898977406861</v>
       </c>
       <c r="AG15">
-        <f>N15-N$55</f>
+        <f t="shared" si="12"/>
         <v>-0.95337695564450975</v>
       </c>
       <c r="AH15">
-        <f>O15-O$55</f>
+        <f t="shared" si="13"/>
         <v>-0.90813420150411772</v>
       </c>
       <c r="AJ15">
         <v>1</v>
       </c>
       <c r="AK15">
-        <f>Q15-Q$55</f>
+        <f t="shared" si="14"/>
         <v>-7.4542274461219318E-3</v>
       </c>
       <c r="AL15">
-        <f>R15-R$55</f>
+        <f t="shared" si="15"/>
         <v>22.432779004306525</v>
       </c>
       <c r="AM15">
-        <f>S15-S$55</f>
+        <f t="shared" si="16"/>
         <v>-0.13761170285416316</v>
       </c>
     </row>
@@ -25759,74 +25759,74 @@
         <v>0.12936642495287332</v>
       </c>
       <c r="U16">
-        <f>B16-B$55</f>
+        <f t="shared" si="0"/>
         <v>-0.3732812757010196</v>
       </c>
       <c r="V16">
-        <f>C16-C$55</f>
+        <f t="shared" si="1"/>
         <v>-0.61756859794062746</v>
       </c>
       <c r="W16">
-        <f>D16-D$55</f>
+        <f t="shared" si="2"/>
         <v>-0.48327546440647062</v>
       </c>
       <c r="X16">
-        <f>E16-E$55</f>
+        <f t="shared" si="3"/>
         <v>-0.69747876194813729</v>
       </c>
       <c r="Y16">
-        <f>F16-F$55</f>
+        <f t="shared" si="4"/>
         <v>-0.14468108781803923</v>
       </c>
       <c r="Z16">
-        <f>G16-G$55</f>
+        <f t="shared" si="5"/>
         <v>-0.73927386410201956</v>
       </c>
       <c r="AA16">
-        <f>H16-H$55</f>
+        <f t="shared" si="6"/>
         <v>-0.87738574263139224</v>
       </c>
       <c r="AB16">
-        <f>I16-I$55</f>
+        <f t="shared" si="7"/>
         <v>-0.69112464743686275</v>
       </c>
       <c r="AC16">
-        <f>J16-J$55</f>
+        <f t="shared" si="8"/>
         <v>0.31794557215431374</v>
       </c>
       <c r="AD16">
-        <f>K16-K$55</f>
+        <f t="shared" si="9"/>
         <v>-1.1174219531170588</v>
       </c>
       <c r="AE16">
-        <f>L16-L$55</f>
+        <f t="shared" si="10"/>
         <v>-0.26293183234337253</v>
       </c>
       <c r="AF16">
-        <f>M16-M$55</f>
+        <f t="shared" si="11"/>
         <v>-0.78197157374068627</v>
       </c>
       <c r="AG16">
-        <f>N16-N$55</f>
+        <f t="shared" si="12"/>
         <v>-0.5488277179445098</v>
       </c>
       <c r="AH16">
-        <f>O16-O$55</f>
+        <f t="shared" si="13"/>
         <v>-0.58898455450411769</v>
       </c>
       <c r="AJ16">
         <v>1</v>
       </c>
       <c r="AK16">
-        <f>Q16-Q$55</f>
+        <f t="shared" si="14"/>
         <v>-1.0587408928675431E-2</v>
       </c>
       <c r="AL16">
-        <f>R16-R$55</f>
+        <f t="shared" si="15"/>
         <v>8.1547028324315232</v>
       </c>
       <c r="AM16">
-        <f>S16-S$55</f>
+        <f t="shared" si="16"/>
         <v>0.12638100922888934</v>
       </c>
     </row>
@@ -25886,74 +25886,74 @@
         <v>-8.0525423421206888E-3</v>
       </c>
       <c r="U17">
-        <f>B17-B$55</f>
+        <f t="shared" si="0"/>
         <v>-0.24754919040101961</v>
       </c>
       <c r="V17">
-        <f>C17-C$55</f>
+        <f t="shared" si="1"/>
         <v>-0.42897554744062749</v>
       </c>
       <c r="W17">
-        <f>D17-D$55</f>
+        <f t="shared" si="2"/>
         <v>-0.69271357780647058</v>
       </c>
       <c r="X17">
-        <f>E17-E$55</f>
+        <f t="shared" si="3"/>
         <v>-0.63116589844813731</v>
       </c>
       <c r="Y17">
-        <f>F17-F$55</f>
+        <f t="shared" si="4"/>
         <v>3.3867359981960776E-2</v>
       </c>
       <c r="Z17">
-        <f>G17-G$55</f>
+        <f t="shared" si="5"/>
         <v>-0.42585175780201956</v>
       </c>
       <c r="AA17">
-        <f>H17-H$55</f>
+        <f t="shared" si="6"/>
         <v>-0.82178133203139214</v>
       </c>
       <c r="AB17">
-        <f>I17-I$55</f>
+        <f t="shared" si="7"/>
         <v>-0.84893499423686281</v>
       </c>
       <c r="AC17">
-        <f>J17-J$55</f>
+        <f t="shared" si="8"/>
         <v>-0.48941561574568632</v>
       </c>
       <c r="AD17">
-        <f>K17-K$55</f>
+        <f t="shared" si="9"/>
         <v>-1.6623570591170587</v>
       </c>
       <c r="AE17">
-        <f>L17-L$55</f>
+        <f t="shared" si="10"/>
         <v>-0.82896196204337247</v>
       </c>
       <c r="AF17">
-        <f>M17-M$55</f>
+        <f t="shared" si="11"/>
         <v>-0.38794651074068631</v>
       </c>
       <c r="AG17">
-        <f>N17-N$55</f>
+        <f t="shared" si="12"/>
         <v>0.50970122655549022</v>
       </c>
       <c r="AH17">
-        <f>O17-O$55</f>
+        <f t="shared" si="13"/>
         <v>-1.5445725195041176</v>
       </c>
       <c r="AJ17">
         <v>1</v>
       </c>
       <c r="AK17">
-        <f>Q17-Q$55</f>
+        <f t="shared" si="14"/>
         <v>9.6301215006878663E-3</v>
       </c>
       <c r="AL17">
-        <f>R17-R$55</f>
+        <f t="shared" si="15"/>
         <v>11.629332179644221</v>
       </c>
       <c r="AM17">
-        <f>S17-S$55</f>
+        <f t="shared" si="16"/>
         <v>-1.1037958066104664E-2</v>
       </c>
     </row>
@@ -26013,74 +26013,74 @@
         <v>-0.11233081114840199</v>
       </c>
       <c r="U18">
-        <f>B18-B$55</f>
+        <f t="shared" si="0"/>
         <v>-0.1834513861010196</v>
       </c>
       <c r="V18">
-        <f>C18-C$55</f>
+        <f t="shared" si="1"/>
         <v>-0.3734075738406275</v>
       </c>
       <c r="W18">
-        <f>D18-D$55</f>
+        <f t="shared" si="2"/>
         <v>-0.27426051560647058</v>
       </c>
       <c r="X18">
-        <f>E18-E$55</f>
+        <f t="shared" si="3"/>
         <v>-9.4001044648137272E-2</v>
       </c>
       <c r="Y18">
-        <f>F18-F$55</f>
+        <f t="shared" si="4"/>
         <v>0.23836955191196077</v>
       </c>
       <c r="Z18">
-        <f>G18-G$55</f>
+        <f t="shared" si="5"/>
         <v>8.4185944607980387E-2</v>
       </c>
       <c r="AA18">
-        <f>H18-H$55</f>
+        <f t="shared" si="6"/>
         <v>-5.5470223531392165E-2</v>
       </c>
       <c r="AB18">
-        <f>I18-I$55</f>
+        <f t="shared" si="7"/>
         <v>2.1306013383137229E-2</v>
       </c>
       <c r="AC18">
-        <f>J18-J$55</f>
+        <f t="shared" si="8"/>
         <v>-1.0810510704456862</v>
       </c>
       <c r="AD18">
-        <f>K18-K$55</f>
+        <f t="shared" si="9"/>
         <v>3.2231902482941194E-2</v>
       </c>
       <c r="AE18">
-        <f>L18-L$55</f>
+        <f t="shared" si="10"/>
         <v>0.16737845600662749</v>
       </c>
       <c r="AF18">
-        <f>M18-M$55</f>
+        <f t="shared" si="11"/>
         <v>0.16737493515931373</v>
       </c>
       <c r="AG18">
-        <f>N18-N$55</f>
+        <f t="shared" si="12"/>
         <v>-0.37873028264450981</v>
       </c>
       <c r="AH18">
-        <f>O18-O$55</f>
+        <f t="shared" si="13"/>
         <v>-1.3576030415041176</v>
       </c>
       <c r="AJ18">
         <v>1</v>
       </c>
       <c r="AK18">
-        <f>Q18-Q$55</f>
+        <f t="shared" si="14"/>
         <v>-1.5809161351153323E-3</v>
       </c>
       <c r="AL18">
-        <f>R18-R$55</f>
+        <f t="shared" si="15"/>
         <v>8.7791625377471245</v>
       </c>
       <c r="AM18">
-        <f>S18-S$55</f>
+        <f t="shared" si="16"/>
         <v>-0.11531622687238596</v>
       </c>
     </row>
@@ -26140,74 +26140,74 @@
         <v>3.1305029865279305E-2</v>
       </c>
       <c r="U19">
-        <f>B19-B$55</f>
+        <f t="shared" si="0"/>
         <v>-0.15736672900101961</v>
       </c>
       <c r="V19">
-        <f>C19-C$55</f>
+        <f t="shared" si="1"/>
         <v>-0.53337438434062745</v>
       </c>
       <c r="W19">
-        <f>D19-D$55</f>
+        <f t="shared" si="2"/>
         <v>-0.33388934550647059</v>
       </c>
       <c r="X19">
-        <f>E19-E$55</f>
+        <f t="shared" si="3"/>
         <v>0.86335907375186272</v>
       </c>
       <c r="Y19">
-        <f>F19-F$55</f>
+        <f t="shared" si="4"/>
         <v>1.0639050020819607</v>
       </c>
       <c r="Z19">
-        <f>G19-G$55</f>
+        <f t="shared" si="5"/>
         <v>0.92383760759798039</v>
       </c>
       <c r="AA19">
-        <f>H19-H$55</f>
+        <f t="shared" si="6"/>
         <v>0.21103830120860784</v>
       </c>
       <c r="AB19">
-        <f>I19-I$55</f>
+        <f t="shared" si="7"/>
         <v>0.35457114436313719</v>
       </c>
       <c r="AC19">
-        <f>J19-J$55</f>
+        <f t="shared" si="8"/>
         <v>0.35141694195431372</v>
       </c>
       <c r="AD19">
-        <f>K19-K$55</f>
+        <f t="shared" si="9"/>
         <v>-0.10559614131705883</v>
       </c>
       <c r="AE19">
-        <f>L19-L$55</f>
+        <f t="shared" si="10"/>
         <v>-0.6154588671433725</v>
       </c>
       <c r="AF19">
-        <f>M19-M$55</f>
+        <f t="shared" si="11"/>
         <v>-0.30545582464068621</v>
       </c>
       <c r="AG19">
-        <f>N19-N$55</f>
+        <f t="shared" si="12"/>
         <v>-0.10618521394450978</v>
       </c>
       <c r="AH19">
-        <f>O19-O$55</f>
+        <f t="shared" si="13"/>
         <v>-0.86788384750411762</v>
       </c>
       <c r="AJ19">
         <v>1</v>
       </c>
       <c r="AK19">
-        <f>Q19-Q$55</f>
+        <f t="shared" si="14"/>
         <v>5.9433097257187689E-3</v>
       </c>
       <c r="AL19">
-        <f>R19-R$55</f>
+        <f t="shared" si="15"/>
         <v>9.4615799686620203</v>
       </c>
       <c r="AM19">
-        <f>S19-S$55</f>
+        <f t="shared" si="16"/>
         <v>2.831961414129533E-2</v>
       </c>
     </row>
@@ -26267,74 +26267,74 @@
         <v>-7.6630653326681675E-2</v>
       </c>
       <c r="U20">
-        <f>B20-B$55</f>
+        <f t="shared" si="0"/>
         <v>0.2150735378989804</v>
       </c>
       <c r="V20">
-        <f>C20-C$55</f>
+        <f t="shared" si="1"/>
         <v>0.25349407505937255</v>
       </c>
       <c r="W20">
-        <f>D20-D$55</f>
+        <f t="shared" si="2"/>
         <v>5.7304776023529423E-2</v>
       </c>
       <c r="X20">
-        <f>E20-E$55</f>
+        <f t="shared" si="3"/>
         <v>-6.5934346481372752E-3</v>
       </c>
       <c r="Y20">
-        <f>F20-F$55</f>
+        <f t="shared" si="4"/>
         <v>0.4780130410819608</v>
       </c>
       <c r="Z20">
-        <f>G20-G$55</f>
+        <f t="shared" si="5"/>
         <v>0.76004493979798038</v>
       </c>
       <c r="AA20">
-        <f>H20-H$55</f>
+        <f t="shared" si="6"/>
         <v>0.52524930636860789</v>
       </c>
       <c r="AB20">
-        <f>I20-I$55</f>
+        <f t="shared" si="7"/>
         <v>-0.15718353293686277</v>
       </c>
       <c r="AC20">
-        <f>J20-J$55</f>
+        <f t="shared" si="8"/>
         <v>-0.29091849134568626</v>
       </c>
       <c r="AD20">
-        <f>K20-K$55</f>
+        <f t="shared" si="9"/>
         <v>0.1084480235629412</v>
       </c>
       <c r="AE20">
-        <f>L20-L$55</f>
+        <f t="shared" si="10"/>
         <v>7.6034960466274809E-3</v>
       </c>
       <c r="AF20">
-        <f>M20-M$55</f>
+        <f t="shared" si="11"/>
         <v>-3.5472992540686255E-2</v>
       </c>
       <c r="AG20">
-        <f>N20-N$55</f>
+        <f t="shared" si="12"/>
         <v>-0.32683036684450983</v>
       </c>
       <c r="AH20">
-        <f>O20-O$55</f>
+        <f t="shared" si="13"/>
         <v>-0.10110789430411765</v>
       </c>
       <c r="AJ20">
         <v>1</v>
       </c>
       <c r="AK20">
-        <f>Q20-Q$55</f>
+        <f t="shared" si="14"/>
         <v>1.7243961109688671E-3</v>
       </c>
       <c r="AL20">
-        <f>R20-R$55</f>
+        <f t="shared" si="15"/>
         <v>-2.0858596065332771</v>
       </c>
       <c r="AM20">
-        <f>S20-S$55</f>
+        <f t="shared" si="16"/>
         <v>-7.961606905066565E-2</v>
       </c>
     </row>
@@ -26394,74 +26394,74 @@
         <v>-4.1800916713192693E-2</v>
       </c>
       <c r="U21">
-        <f>B21-B$55</f>
+        <f t="shared" si="0"/>
         <v>0.7041148735989804</v>
       </c>
       <c r="V21">
-        <f>C21-C$55</f>
+        <f t="shared" si="1"/>
         <v>0.37209526125937253</v>
       </c>
       <c r="W21">
-        <f>D21-D$55</f>
+        <f t="shared" si="2"/>
         <v>0.3680980344935294</v>
       </c>
       <c r="X21">
-        <f>E21-E$55</f>
+        <f t="shared" si="3"/>
         <v>0.72000990055186276</v>
       </c>
       <c r="Y21">
-        <f>F21-F$55</f>
+        <f t="shared" si="4"/>
         <v>0.77233644808196078</v>
       </c>
       <c r="Z21">
-        <f>G21-G$55</f>
+        <f t="shared" si="5"/>
         <v>0.94703160989798041</v>
       </c>
       <c r="AA21">
-        <f>H21-H$55</f>
+        <f t="shared" si="6"/>
         <v>0.49511887166860785</v>
       </c>
       <c r="AB21">
-        <f>I21-I$55</f>
+        <f t="shared" si="7"/>
         <v>0.97271339356313724</v>
       </c>
       <c r="AC21">
-        <f>J21-J$55</f>
+        <f t="shared" si="8"/>
         <v>0.41933921715431371</v>
       </c>
       <c r="AD21">
-        <f>K21-K$55</f>
+        <f t="shared" si="9"/>
         <v>0.91638505668294123</v>
       </c>
       <c r="AE21">
-        <f>L21-L$55</f>
+        <f t="shared" si="10"/>
         <v>8.9400080106627478E-2</v>
       </c>
       <c r="AF21">
-        <f>M21-M$55</f>
+        <f t="shared" si="11"/>
         <v>0.46280721525931379</v>
       </c>
       <c r="AG21">
-        <f>N21-N$55</f>
+        <f t="shared" si="12"/>
         <v>0.64873898075549019</v>
       </c>
       <c r="AH21">
-        <f>O21-O$55</f>
+        <f t="shared" si="13"/>
         <v>-3.7916103804117668E-2</v>
       </c>
       <c r="AJ21">
         <v>1</v>
       </c>
       <c r="AK21">
-        <f>Q21-Q$55</f>
+        <f t="shared" si="14"/>
         <v>2.0277241482307678E-3</v>
       </c>
       <c r="AL21">
-        <f>R21-R$55</f>
+        <f t="shared" si="15"/>
         <v>12.113862683505827</v>
       </c>
       <c r="AM21">
-        <f>S21-S$55</f>
+        <f t="shared" si="16"/>
         <v>-4.4786332437176668E-2</v>
       </c>
     </row>
@@ -26521,74 +26521,74 @@
         <v>-0.13760206303854611</v>
       </c>
       <c r="U22">
-        <f>B22-B$55</f>
+        <f t="shared" si="0"/>
         <v>-0.10179896292101961</v>
       </c>
       <c r="V22">
-        <f>C22-C$55</f>
+        <f t="shared" si="1"/>
         <v>-0.24991429954062747</v>
       </c>
       <c r="W22">
-        <f>D22-D$55</f>
+        <f t="shared" si="2"/>
         <v>-8.3943121406470575E-2</v>
       </c>
       <c r="X22">
-        <f>E22-E$55</f>
+        <f t="shared" si="3"/>
         <v>0.19279877797186273</v>
       </c>
       <c r="Y22">
-        <f>F22-F$55</f>
+        <f t="shared" si="4"/>
         <v>-0.17066773461803925</v>
       </c>
       <c r="Z22">
-        <f>G22-G$55</f>
+        <f t="shared" si="5"/>
         <v>0.11162179313798039</v>
       </c>
       <c r="AA22">
-        <f>H22-H$55</f>
+        <f t="shared" si="6"/>
         <v>0.13915881438960784</v>
       </c>
       <c r="AB22">
-        <f>I22-I$55</f>
+        <f t="shared" si="7"/>
         <v>2.0342098913137228E-2</v>
       </c>
       <c r="AC22">
-        <f>J22-J$55</f>
+        <f t="shared" si="8"/>
         <v>-0.16027289254568627</v>
       </c>
       <c r="AD22">
-        <f>K22-K$55</f>
+        <f t="shared" si="9"/>
         <v>-0.11911928981705883</v>
       </c>
       <c r="AE22">
-        <f>L22-L$55</f>
+        <f t="shared" si="10"/>
         <v>0.17339475681662747</v>
       </c>
       <c r="AF22">
-        <f>M22-M$55</f>
+        <f t="shared" si="11"/>
         <v>-0.12874068474068626</v>
       </c>
       <c r="AG22">
-        <f>N22-N$55</f>
+        <f t="shared" si="12"/>
         <v>1.4518074755490218E-2</v>
       </c>
       <c r="AH22">
-        <f>O22-O$55</f>
+        <f t="shared" si="13"/>
         <v>-0.5365036365041177</v>
       </c>
       <c r="AJ22">
         <v>1</v>
       </c>
       <c r="AK22">
-        <f>Q22-Q$55</f>
+        <f t="shared" si="14"/>
         <v>1.4177246229248269E-2</v>
       </c>
       <c r="AL22">
-        <f>R22-R$55</f>
+        <f t="shared" si="15"/>
         <v>22.695093765364035</v>
       </c>
       <c r="AM22">
-        <f>S22-S$55</f>
+        <f t="shared" si="16"/>
         <v>-0.14058747876253008</v>
       </c>
     </row>
@@ -26648,74 +26648,74 @@
         <v>-3.2946379459265679E-2</v>
       </c>
       <c r="U23">
-        <f>B23-B$55</f>
+        <f t="shared" si="0"/>
         <v>-8.3845916801019618E-2</v>
       </c>
       <c r="V23">
-        <f>C23-C$55</f>
+        <f t="shared" si="1"/>
         <v>0.51667176205937249</v>
       </c>
       <c r="W23">
-        <f>D23-D$55</f>
+        <f t="shared" si="2"/>
         <v>0.54901272239352938</v>
       </c>
       <c r="X23">
-        <f>E23-E$55</f>
+        <f t="shared" si="3"/>
         <v>-0.2795734463481373</v>
       </c>
       <c r="Y23">
-        <f>F23-F$55</f>
+        <f t="shared" si="4"/>
         <v>-2.7374754818039221E-2</v>
       </c>
       <c r="Z23">
-        <f>G23-G$55</f>
+        <f t="shared" si="5"/>
         <v>0.27605661879798038</v>
       </c>
       <c r="AA23">
-        <f>H23-H$55</f>
+        <f t="shared" si="6"/>
         <v>0.21108714579860782</v>
       </c>
       <c r="AB23">
-        <f>I23-I$55</f>
+        <f t="shared" si="7"/>
         <v>9.8176872793137221E-2</v>
       </c>
       <c r="AC23">
-        <f>J23-J$55</f>
+        <f t="shared" si="8"/>
         <v>-2.2749159345686276E-2</v>
       </c>
       <c r="AD23">
-        <f>K23-K$55</f>
+        <f t="shared" si="9"/>
         <v>-0.52527317041705879</v>
       </c>
       <c r="AE23">
-        <f>L23-L$55</f>
+        <f t="shared" si="10"/>
         <v>0.53091740295662748</v>
       </c>
       <c r="AF23">
-        <f>M23-M$55</f>
+        <f t="shared" si="11"/>
         <v>0.22447960405931372</v>
       </c>
       <c r="AG23">
-        <f>N23-N$55</f>
+        <f t="shared" si="12"/>
         <v>-0.26213069514450982</v>
       </c>
       <c r="AH23">
-        <f>O23-O$55</f>
+        <f t="shared" si="13"/>
         <v>-0.21171336430411769</v>
       </c>
       <c r="AJ23">
         <v>1</v>
       </c>
       <c r="AK23">
-        <f>Q23-Q$55</f>
+        <f t="shared" si="14"/>
         <v>1.4065431668331665E-3</v>
       </c>
       <c r="AL23">
-        <f>R23-R$55</f>
+        <f t="shared" si="15"/>
         <v>8.4594437381933272</v>
       </c>
       <c r="AM23">
-        <f>S23-S$55</f>
+        <f t="shared" si="16"/>
         <v>-3.5931795183249654E-2</v>
       </c>
     </row>
@@ -26775,74 +26775,74 @@
         <v>-6.4498637435948691E-2</v>
       </c>
       <c r="U24">
-        <f>B24-B$55</f>
+        <f t="shared" si="0"/>
         <v>2.5117035468980392E-2</v>
       </c>
       <c r="V24">
-        <f>C24-C$55</f>
+        <f t="shared" si="1"/>
         <v>5.6808674929372541E-2</v>
       </c>
       <c r="W24">
-        <f>D24-D$55</f>
+        <f t="shared" si="2"/>
         <v>0.31481381399352942</v>
       </c>
       <c r="X24">
-        <f>E24-E$55</f>
+        <f t="shared" si="3"/>
         <v>0.29901166435186272</v>
       </c>
       <c r="Y24">
-        <f>F24-F$55</f>
+        <f t="shared" si="4"/>
         <v>0.31901672848196078</v>
       </c>
       <c r="Z24">
-        <f>G24-G$55</f>
+        <f t="shared" si="5"/>
         <v>0.35946193039798036</v>
       </c>
       <c r="AA24">
-        <f>H24-H$55</f>
+        <f t="shared" si="6"/>
         <v>0.39413482616860784</v>
       </c>
       <c r="AB24">
-        <f>I24-I$55</f>
+        <f t="shared" si="7"/>
         <v>0.15129811065313722</v>
       </c>
       <c r="AC24">
-        <f>J24-J$55</f>
+        <f t="shared" si="8"/>
         <v>0.24247087115431373</v>
       </c>
       <c r="AD24">
-        <f>K24-K$55</f>
+        <f t="shared" si="9"/>
         <v>1.0534415468829412</v>
       </c>
       <c r="AE24">
-        <f>L24-L$55</f>
+        <f t="shared" si="10"/>
         <v>0.53936837295662743</v>
       </c>
       <c r="AF24">
-        <f>M24-M$55</f>
+        <f t="shared" si="11"/>
         <v>-0.12165895454068629</v>
       </c>
       <c r="AG24">
-        <f>N24-N$55</f>
+        <f t="shared" si="12"/>
         <v>-0.10901590244450979</v>
       </c>
       <c r="AH24">
-        <f>O24-O$55</f>
+        <f t="shared" si="13"/>
         <v>-7.3995764504117656E-2</v>
       </c>
       <c r="AJ24">
         <v>1</v>
       </c>
       <c r="AK24">
-        <f>Q24-Q$55</f>
+        <f t="shared" si="14"/>
         <v>-6.2309911237189326E-3</v>
       </c>
       <c r="AL24">
-        <f>R24-R$55</f>
+        <f t="shared" si="15"/>
         <v>-0.67220146444347617</v>
       </c>
       <c r="AM24">
-        <f>S24-S$55</f>
+        <f t="shared" si="16"/>
         <v>-6.7484053159932667E-2</v>
       </c>
     </row>
@@ -26902,74 +26902,74 @@
         <v>-0.10347458097728068</v>
       </c>
       <c r="U25">
-        <f>B25-B$55</f>
+        <f t="shared" si="0"/>
         <v>0.10905876399898039</v>
       </c>
       <c r="V25">
-        <f>C25-C$55</f>
+        <f t="shared" si="1"/>
         <v>2.1652730549372542E-2</v>
       </c>
       <c r="W25">
-        <f>D25-D$55</f>
+        <f t="shared" si="2"/>
         <v>-0.3923893825064706</v>
       </c>
       <c r="X25">
-        <f>E25-E$55</f>
+        <f t="shared" si="3"/>
         <v>-0.39462212054813728</v>
       </c>
       <c r="Y25">
-        <f>F25-F$55</f>
+        <f t="shared" si="4"/>
         <v>-0.5535233821180392</v>
       </c>
       <c r="Z25">
-        <f>G25-G$55</f>
+        <f t="shared" si="5"/>
         <v>-0.43620689710201965</v>
       </c>
       <c r="AA25">
-        <f>H25-H$55</f>
+        <f t="shared" si="6"/>
         <v>0.20799496311860782</v>
       </c>
       <c r="AB25">
-        <f>I25-I$55</f>
+        <f t="shared" si="7"/>
         <v>-0.14175760373686278</v>
       </c>
       <c r="AC25">
-        <f>J25-J$55</f>
+        <f t="shared" si="8"/>
         <v>-0.35184407234568627</v>
       </c>
       <c r="AD25">
-        <f>K25-K$55</f>
+        <f t="shared" si="9"/>
         <v>-0.7818700261170588</v>
       </c>
       <c r="AE25">
-        <f>L25-L$55</f>
+        <f t="shared" si="10"/>
         <v>-0.18037181464337254</v>
       </c>
       <c r="AF25">
-        <f>M25-M$55</f>
+        <f t="shared" si="11"/>
         <v>0.17589814564931372</v>
       </c>
       <c r="AG25">
-        <f>N25-N$55</f>
+        <f t="shared" si="12"/>
         <v>0.25393134455549021</v>
       </c>
       <c r="AH25">
-        <f>O25-O$55</f>
+        <f t="shared" si="13"/>
         <v>0.46799090459588233</v>
       </c>
       <c r="AJ25">
         <v>1</v>
       </c>
       <c r="AK25">
-        <f>Q25-Q$55</f>
+        <f t="shared" si="14"/>
         <v>-1.3415236281705793E-2</v>
       </c>
       <c r="AL25">
-        <f>R25-R$55</f>
+        <f t="shared" si="15"/>
         <v>-2.9612563350488736</v>
       </c>
       <c r="AM25">
-        <f>S25-S$55</f>
+        <f t="shared" si="16"/>
         <v>-0.10645999670126466</v>
       </c>
     </row>
@@ -27029,74 +27029,74 @@
         <v>-8.5049415476211684E-2</v>
       </c>
       <c r="U26">
-        <f>B26-B$55</f>
+        <f t="shared" si="0"/>
         <v>-0.35571003130101958</v>
       </c>
       <c r="V26">
-        <f>C26-C$55</f>
+        <f t="shared" si="1"/>
         <v>-0.5653517388406275</v>
       </c>
       <c r="W26">
-        <f>D26-D$55</f>
+        <f t="shared" si="2"/>
         <v>-7.9299952006470567E-2</v>
       </c>
       <c r="X26">
-        <f>E26-E$55</f>
+        <f t="shared" si="3"/>
         <v>0.90315297385186277</v>
       </c>
       <c r="Y26">
-        <f>F26-F$55</f>
+        <f t="shared" si="4"/>
         <v>0.78390388548196088</v>
       </c>
       <c r="Z26">
-        <f>G26-G$55</f>
+        <f t="shared" si="5"/>
         <v>0.19377590718798038</v>
       </c>
       <c r="AA26">
-        <f>H26-H$55</f>
+        <f t="shared" si="6"/>
         <v>-0.63284648983139213</v>
       </c>
       <c r="AB26">
-        <f>I26-I$55</f>
+        <f t="shared" si="7"/>
         <v>-8.0807041036862759E-2</v>
       </c>
       <c r="AC26">
-        <f>J26-J$55</f>
+        <f t="shared" si="8"/>
         <v>-5.6193697345686272E-2</v>
       </c>
       <c r="AD26">
-        <f>K26-K$55</f>
+        <f t="shared" si="9"/>
         <v>-0.76122453051705874</v>
       </c>
       <c r="AE26">
-        <f>L26-L$55</f>
+        <f t="shared" si="10"/>
         <v>-0.46753447274337256</v>
       </c>
       <c r="AF26">
-        <f>M26-M$55</f>
+        <f t="shared" si="11"/>
         <v>0.64151207795931375</v>
       </c>
       <c r="AG26">
-        <f>N26-N$55</f>
+        <f t="shared" si="12"/>
         <v>0.33335410425549022</v>
       </c>
       <c r="AH26">
-        <f>O26-O$55</f>
+        <f t="shared" si="13"/>
         <v>-0.25887366150411767</v>
       </c>
       <c r="AJ26">
         <v>1</v>
       </c>
       <c r="AK26">
-        <f>Q26-Q$55</f>
+        <f t="shared" si="14"/>
         <v>1.6401393576433666E-3</v>
       </c>
       <c r="AL26">
-        <f>R26-R$55</f>
+        <f t="shared" si="15"/>
         <v>0.52575843545892442</v>
       </c>
       <c r="AM26">
-        <f>S26-S$55</f>
+        <f t="shared" si="16"/>
         <v>-8.803483120019566E-2</v>
       </c>
     </row>
@@ -27156,74 +27156,74 @@
         <v>0.49409123879083733</v>
       </c>
       <c r="U27">
-        <f>B27-B$55</f>
+        <f t="shared" si="0"/>
         <v>0.65593861989898039</v>
       </c>
       <c r="V27">
-        <f>C27-C$55</f>
+        <f t="shared" si="1"/>
         <v>0.43817333925937252</v>
       </c>
       <c r="W27">
-        <f>D27-D$55</f>
+        <f t="shared" si="2"/>
         <v>0.32754557449352945</v>
       </c>
       <c r="X27">
-        <f>E27-E$55</f>
+        <f t="shared" si="3"/>
         <v>-7.0911077848137272E-2</v>
       </c>
       <c r="Y27">
-        <f>F27-F$55</f>
+        <f t="shared" si="4"/>
         <v>-0.76238029151803932</v>
       </c>
       <c r="Z27">
-        <f>G27-G$55</f>
+        <f t="shared" si="5"/>
         <v>-0.16798794900201963</v>
       </c>
       <c r="AA27">
-        <f>H27-H$55</f>
+        <f t="shared" si="6"/>
         <v>0.40990681736860785</v>
       </c>
       <c r="AB27">
-        <f>I27-I$55</f>
+        <f t="shared" si="7"/>
         <v>0.96285911066313723</v>
       </c>
       <c r="AC27">
-        <f>J27-J$55</f>
+        <f t="shared" si="8"/>
         <v>0.5804569535543137</v>
       </c>
       <c r="AD27">
-        <f>K27-K$55</f>
+        <f t="shared" si="9"/>
         <v>0.71018665948294124</v>
       </c>
       <c r="AE27">
-        <f>L27-L$55</f>
+        <f t="shared" si="10"/>
         <v>-0.59740199484337253</v>
       </c>
       <c r="AF27">
-        <f>M27-M$55</f>
+        <f t="shared" si="11"/>
         <v>-0.71128384404068634</v>
       </c>
       <c r="AG27">
-        <f>N27-N$55</f>
+        <f t="shared" si="12"/>
         <v>-0.75625427284450975</v>
       </c>
       <c r="AH27">
-        <f>O27-O$55</f>
+        <f t="shared" si="13"/>
         <v>1.4977973124958823</v>
       </c>
       <c r="AJ27">
         <v>1</v>
       </c>
       <c r="AK27">
-        <f>Q27-Q$55</f>
+        <f t="shared" si="14"/>
         <v>-5.6150600076744321E-3</v>
       </c>
       <c r="AL27">
-        <f>R27-R$55</f>
+        <f t="shared" si="15"/>
         <v>-39.156650851040069</v>
       </c>
       <c r="AM27">
-        <f>S27-S$55</f>
+        <f t="shared" si="16"/>
         <v>0.49110582306685335</v>
       </c>
     </row>
@@ -27283,74 +27283,74 @@
         <v>3.5587672792609298E-2</v>
       </c>
       <c r="U28">
-        <f>B28-B$55</f>
+        <f t="shared" si="0"/>
         <v>0.35530142609898041</v>
       </c>
       <c r="V28">
-        <f>C28-C$55</f>
+        <f t="shared" si="1"/>
         <v>6.2937640979372544E-2</v>
       </c>
       <c r="W28">
-        <f>D28-D$55</f>
+        <f t="shared" si="2"/>
         <v>0.26640117569352945</v>
       </c>
       <c r="X28">
-        <f>E28-E$55</f>
+        <f t="shared" si="3"/>
         <v>0.28396088035186273</v>
       </c>
       <c r="Y28">
-        <f>F28-F$55</f>
+        <f t="shared" si="4"/>
         <v>0.10583382535196077</v>
       </c>
       <c r="Z28">
-        <f>G28-G$55</f>
+        <f t="shared" si="5"/>
         <v>-0.23775294120201962</v>
       </c>
       <c r="AA28">
-        <f>H28-H$55</f>
+        <f t="shared" si="6"/>
         <v>3.6055481668607836E-2</v>
       </c>
       <c r="AB28">
-        <f>I28-I$55</f>
+        <f t="shared" si="7"/>
         <v>0.14158961287313723</v>
       </c>
       <c r="AC28">
-        <f>J28-J$55</f>
+        <f t="shared" si="8"/>
         <v>-0.11611430154568628</v>
       </c>
       <c r="AD28">
-        <f>K28-K$55</f>
+        <f t="shared" si="9"/>
         <v>0.79498425528294125</v>
       </c>
       <c r="AE28">
-        <f>L28-L$55</f>
+        <f t="shared" si="10"/>
         <v>0.75076328025662753</v>
       </c>
       <c r="AF28">
-        <f>M28-M$55</f>
+        <f t="shared" si="11"/>
         <v>-0.67294737604068633</v>
       </c>
       <c r="AG28">
-        <f>N28-N$55</f>
+        <f t="shared" si="12"/>
         <v>0.2168478604554902</v>
       </c>
       <c r="AH28">
-        <f>O28-O$55</f>
+        <f t="shared" si="13"/>
         <v>0.28453305299588233</v>
       </c>
       <c r="AJ28">
         <v>1</v>
       </c>
       <c r="AK28">
-        <f>Q28-Q$55</f>
+        <f t="shared" si="14"/>
         <v>-2.1377948806712305E-3</v>
       </c>
       <c r="AL28">
-        <f>R28-R$55</f>
+        <f t="shared" si="15"/>
         <v>-6.3700049617578722</v>
       </c>
       <c r="AM28">
-        <f>S28-S$55</f>
+        <f t="shared" si="16"/>
         <v>3.2602257068625323E-2</v>
       </c>
     </row>
@@ -27410,74 +27410,74 @@
         <v>-9.0217208697121687E-2</v>
       </c>
       <c r="U29">
-        <f>B29-B$55</f>
+        <f t="shared" si="0"/>
         <v>-0.53231957370101968</v>
       </c>
       <c r="V29">
-        <f>C29-C$55</f>
+        <f t="shared" si="1"/>
         <v>-0.35592688234062742</v>
       </c>
       <c r="W29">
-        <f>D29-D$55</f>
+        <f t="shared" si="2"/>
         <v>-0.12518105320647055</v>
       </c>
       <c r="X29">
-        <f>E29-E$55</f>
+        <f t="shared" si="3"/>
         <v>-0.76959356634813725</v>
       </c>
       <c r="Y29">
-        <f>F29-F$55</f>
+        <f t="shared" si="4"/>
         <v>-1.0421694631180394</v>
       </c>
       <c r="Z29">
-        <f>G29-G$55</f>
+        <f t="shared" si="5"/>
         <v>-0.27711494340201959</v>
       </c>
       <c r="AA29">
-        <f>H29-H$55</f>
+        <f t="shared" si="6"/>
         <v>-0.19386027283139218</v>
       </c>
       <c r="AB29">
-        <f>I29-I$55</f>
+        <f t="shared" si="7"/>
         <v>-7.1509217336862774E-2</v>
       </c>
       <c r="AC29">
-        <f>J29-J$55</f>
+        <f t="shared" si="8"/>
         <v>-0.41145204984568623</v>
       </c>
       <c r="AD29">
-        <f>K29-K$55</f>
+        <f t="shared" si="9"/>
         <v>-0.29825520991705884</v>
       </c>
       <c r="AE29">
-        <f>L29-L$55</f>
+        <f t="shared" si="10"/>
         <v>8.2651010466627484E-2</v>
       </c>
       <c r="AF29">
-        <f>M29-M$55</f>
+        <f t="shared" si="11"/>
         <v>-1.2981665407406862</v>
       </c>
       <c r="AG29">
-        <f>N29-N$55</f>
+        <f t="shared" si="12"/>
         <v>-1.1626057306445097</v>
       </c>
       <c r="AH29">
-        <f>O29-O$55</f>
+        <f t="shared" si="13"/>
         <v>4.9782549295882328E-2</v>
       </c>
       <c r="AJ29">
         <v>1</v>
       </c>
       <c r="AK29">
-        <f>Q29-Q$55</f>
+        <f t="shared" si="14"/>
         <v>4.5147074623873695E-3</v>
       </c>
       <c r="AL29">
-        <f>R29-R$55</f>
+        <f t="shared" si="15"/>
         <v>12.523790051669833</v>
       </c>
       <c r="AM29">
-        <f>S29-S$55</f>
+        <f t="shared" si="16"/>
         <v>-9.3202624421105662E-2</v>
       </c>
     </row>
@@ -27537,74 +27537,74 @@
         <v>-4.4804982477128691E-2</v>
       </c>
       <c r="U30">
-        <f>B30-B$55</f>
+        <f t="shared" si="0"/>
         <v>-0.30865704320101961</v>
       </c>
       <c r="V30">
-        <f>C30-C$55</f>
+        <f t="shared" si="1"/>
         <v>0.24773549975937253</v>
       </c>
       <c r="W30">
-        <f>D30-D$55</f>
+        <f t="shared" si="2"/>
         <v>6.798863904352942E-2</v>
       </c>
       <c r="X30">
-        <f>E30-E$55</f>
+        <f t="shared" si="3"/>
         <v>0.43505666445186275</v>
       </c>
       <c r="Y30">
-        <f>F30-F$55</f>
+        <f t="shared" si="4"/>
         <v>0.21912495209196076</v>
       </c>
       <c r="Z30">
-        <f>G30-G$55</f>
+        <f t="shared" si="5"/>
         <v>-0.35875194420201961</v>
       </c>
       <c r="AA30">
-        <f>H30-H$55</f>
+        <f t="shared" si="6"/>
         <v>-0.28723475343139215</v>
       </c>
       <c r="AB30">
-        <f>I30-I$55</f>
+        <f t="shared" si="7"/>
         <v>-0.60772001283686283</v>
       </c>
       <c r="AC30">
-        <f>J30-J$55</f>
+        <f t="shared" si="8"/>
         <v>-8.4191374045686274E-2</v>
       </c>
       <c r="AD30">
-        <f>K30-K$55</f>
+        <f t="shared" si="9"/>
         <v>-6.3383393867058796E-2</v>
       </c>
       <c r="AE30">
-        <f>L30-L$55</f>
+        <f t="shared" si="10"/>
         <v>-0.18843299624337251</v>
       </c>
       <c r="AF30">
-        <f>M30-M$55</f>
+        <f t="shared" si="11"/>
         <v>-0.73916286544068632</v>
       </c>
       <c r="AG30">
-        <f>N30-N$55</f>
+        <f t="shared" si="12"/>
         <v>-0.99596046264450977</v>
       </c>
       <c r="AH30">
-        <f>O30-O$55</f>
+        <f t="shared" si="13"/>
         <v>9.9125633515882328E-2</v>
       </c>
       <c r="AJ30">
         <v>1</v>
       </c>
       <c r="AK30">
-        <f>Q30-Q$55</f>
+        <f t="shared" si="14"/>
         <v>-6.5652074054906324E-3</v>
       </c>
       <c r="AL30">
-        <f>R30-R$55</f>
+        <f t="shared" si="15"/>
         <v>-19.86967689779307</v>
       </c>
       <c r="AM30">
-        <f>S30-S$55</f>
+        <f t="shared" si="16"/>
         <v>-4.7790398201112666E-2</v>
       </c>
     </row>
@@ -27664,74 +27664,74 @@
         <v>-1.5489782948179681E-2</v>
       </c>
       <c r="U31">
-        <f>B31-B$55</f>
+        <f t="shared" si="0"/>
         <v>0.65685912179898032</v>
       </c>
       <c r="V31">
-        <f>C31-C$55</f>
+        <f t="shared" si="1"/>
         <v>1.5241186799593724</v>
       </c>
       <c r="W31">
-        <f>D31-D$55</f>
+        <f t="shared" si="2"/>
         <v>1.5280104843935296</v>
       </c>
       <c r="X31">
-        <f>E31-E$55</f>
+        <f t="shared" si="3"/>
         <v>0.84769158985186277</v>
       </c>
       <c r="Y31">
-        <f>F31-F$55</f>
+        <f t="shared" si="4"/>
         <v>0.24921421277196076</v>
       </c>
       <c r="Z31">
-        <f>G31-G$55</f>
+        <f t="shared" si="5"/>
         <v>0.6656737412979804</v>
       </c>
       <c r="AA31">
-        <f>H31-H$55</f>
+        <f t="shared" si="6"/>
         <v>1.4236344203686078</v>
       </c>
       <c r="AB31">
-        <f>I31-I$55</f>
+        <f t="shared" si="7"/>
         <v>1.2227981633631373</v>
       </c>
       <c r="AC31">
-        <f>J31-J$55</f>
+        <f t="shared" si="8"/>
         <v>0.75509591315431379</v>
       </c>
       <c r="AD31">
-        <f>K31-K$55</f>
+        <f t="shared" si="9"/>
         <v>1.1372316608829411</v>
       </c>
       <c r="AE31">
-        <f>L31-L$55</f>
+        <f t="shared" si="10"/>
         <v>1.4817392372566276</v>
       </c>
       <c r="AF31">
-        <f>M31-M$55</f>
+        <f t="shared" si="11"/>
         <v>1.0740166107593137</v>
       </c>
       <c r="AG31">
-        <f>N31-N$55</f>
+        <f t="shared" si="12"/>
         <v>1.7557822773554903</v>
       </c>
       <c r="AH31">
-        <f>O31-O$55</f>
+        <f t="shared" si="13"/>
         <v>0.8938524282958823</v>
       </c>
       <c r="AJ31">
         <v>1</v>
       </c>
       <c r="AK31">
-        <f>Q31-Q$55</f>
+        <f t="shared" si="14"/>
         <v>-9.3427875773141322E-3</v>
       </c>
       <c r="AL31">
-        <f>R31-R$55</f>
+        <f t="shared" si="15"/>
         <v>-9.3684104183008703</v>
       </c>
       <c r="AM31">
-        <f>S31-S$55</f>
+        <f t="shared" si="16"/>
         <v>-1.8475198672163656E-2</v>
       </c>
     </row>
@@ -27791,74 +27791,74 @@
         <v>-9.3488882105156879E-3</v>
       </c>
       <c r="U32">
-        <f>B32-B$55</f>
+        <f t="shared" si="0"/>
         <v>0.53073413979898032</v>
       </c>
       <c r="V32">
-        <f>C32-C$55</f>
+        <f t="shared" si="1"/>
         <v>-0.19968747124062744</v>
       </c>
       <c r="W32">
-        <f>D32-D$55</f>
+        <f t="shared" si="2"/>
         <v>-0.18003231010647058</v>
       </c>
       <c r="X32">
-        <f>E32-E$55</f>
+        <f t="shared" si="3"/>
         <v>-5.8104417848137274E-2</v>
       </c>
       <c r="Y32">
-        <f>F32-F$55</f>
+        <f t="shared" si="4"/>
         <v>-0.42394688331803926</v>
       </c>
       <c r="Z32">
-        <f>G32-G$55</f>
+        <f t="shared" si="5"/>
         <v>0.34609351969798041</v>
       </c>
       <c r="AA32">
-        <f>H32-H$55</f>
+        <f t="shared" si="6"/>
         <v>-0.26578412763139214</v>
       </c>
       <c r="AB32">
-        <f>I32-I$55</f>
+        <f t="shared" si="7"/>
         <v>-0.26687149983686281</v>
       </c>
       <c r="AC32">
-        <f>J32-J$55</f>
+        <f t="shared" si="8"/>
         <v>-0.71199350334568634</v>
       </c>
       <c r="AD32">
-        <f>K32-K$55</f>
+        <f t="shared" si="9"/>
         <v>-0.5731174296170588</v>
       </c>
       <c r="AE32">
-        <f>L32-L$55</f>
+        <f t="shared" si="10"/>
         <v>-0.65944619214337252</v>
       </c>
       <c r="AF32">
-        <f>M32-M$55</f>
+        <f t="shared" si="11"/>
         <v>-0.14651186414068626</v>
       </c>
       <c r="AG32">
-        <f>N32-N$55</f>
+        <f t="shared" si="12"/>
         <v>-0.2131596213445098</v>
       </c>
       <c r="AH32">
-        <f>O32-O$55</f>
+        <f t="shared" si="13"/>
         <v>-1.0822109615041176</v>
       </c>
       <c r="AJ32">
         <v>1</v>
       </c>
       <c r="AK32">
-        <f>Q32-Q$55</f>
+        <f t="shared" si="14"/>
         <v>8.0868715657761697E-3</v>
       </c>
       <c r="AL32">
-        <f>R32-R$55</f>
+        <f t="shared" si="15"/>
         <v>15.243730237216722</v>
       </c>
       <c r="AM32">
-        <f>S32-S$55</f>
+        <f t="shared" si="16"/>
         <v>-1.2334303934499663E-2</v>
       </c>
     </row>
@@ -27918,74 +27918,74 @@
         <v>-5.082056916911068E-2</v>
       </c>
       <c r="U33">
-        <f>B33-B$55</f>
+        <f t="shared" si="0"/>
         <v>-0.25766786690101962</v>
       </c>
       <c r="V33">
-        <f>C33-C$55</f>
+        <f t="shared" si="1"/>
         <v>4.6809183759372541E-2</v>
       </c>
       <c r="W33">
-        <f>D33-D$55</f>
+        <f t="shared" si="2"/>
         <v>5.2758897153529424E-2</v>
       </c>
       <c r="X33">
-        <f>E33-E$55</f>
+        <f t="shared" si="3"/>
         <v>-0.10894772154813728</v>
       </c>
       <c r="Y33">
-        <f>F33-F$55</f>
+        <f t="shared" si="4"/>
         <v>-9.3552102418039212E-2</v>
       </c>
       <c r="Z33">
-        <f>G33-G$55</f>
+        <f t="shared" si="5"/>
         <v>-0.7681955022020196</v>
       </c>
       <c r="AA33">
-        <f>H33-H$55</f>
+        <f t="shared" si="6"/>
         <v>-0.53925834363139213</v>
       </c>
       <c r="AB33">
-        <f>I33-I$55</f>
+        <f t="shared" si="7"/>
         <v>-0.66579362543686282</v>
       </c>
       <c r="AC33">
-        <f>J33-J$55</f>
+        <f t="shared" si="8"/>
         <v>0.21794656325431372</v>
       </c>
       <c r="AD33">
-        <f>K33-K$55</f>
+        <f t="shared" si="9"/>
         <v>-0.8381270314170588</v>
       </c>
       <c r="AE33">
-        <f>L33-L$55</f>
+        <f t="shared" si="10"/>
         <v>0.14393512854662749</v>
       </c>
       <c r="AF33">
-        <f>M33-M$55</f>
+        <f t="shared" si="11"/>
         <v>0.12772923676931375</v>
       </c>
       <c r="AG33">
-        <f>N33-N$55</f>
+        <f t="shared" si="12"/>
         <v>0.83089835445549021</v>
       </c>
       <c r="AH33">
-        <f>O33-O$55</f>
+        <f t="shared" si="13"/>
         <v>0.47879620769588233</v>
       </c>
       <c r="AJ33">
         <v>1</v>
       </c>
       <c r="AK33">
-        <f>Q33-Q$55</f>
+        <f t="shared" si="14"/>
         <v>-7.4481347338387315E-3</v>
       </c>
       <c r="AL33">
-        <f>R33-R$55</f>
+        <f t="shared" si="15"/>
         <v>-9.565218279628974</v>
       </c>
       <c r="AM33">
-        <f>S33-S$55</f>
+        <f t="shared" si="16"/>
         <v>-5.3805984893094655E-2</v>
       </c>
     </row>
@@ -28045,74 +28045,74 @@
         <v>0.1000866122815513</v>
       </c>
       <c r="U34">
-        <f>B34-B$55</f>
+        <f t="shared" ref="U34:U52" si="17">B34-B$55</f>
         <v>0.21970098559898041</v>
       </c>
       <c r="V34">
-        <f>C34-C$55</f>
+        <f t="shared" ref="V34:V52" si="18">C34-C$55</f>
         <v>0.75761893025937255</v>
       </c>
       <c r="W34">
-        <f>D34-D$55</f>
+        <f t="shared" ref="W34:W52" si="19">D34-D$55</f>
         <v>-1.654633106470571E-3</v>
       </c>
       <c r="X34">
-        <f>E34-E$55</f>
+        <f t="shared" ref="X34:X52" si="20">E34-E$55</f>
         <v>-0.32159493574813725</v>
       </c>
       <c r="Y34">
-        <f>F34-F$55</f>
+        <f t="shared" ref="Y34:Y52" si="21">F34-F$55</f>
         <v>-0.27533807481803924</v>
       </c>
       <c r="Z34">
-        <f>G34-G$55</f>
+        <f t="shared" ref="Z34:Z52" si="22">G34-G$55</f>
         <v>0.1836783165979804</v>
       </c>
       <c r="AA34">
-        <f>H34-H$55</f>
+        <f t="shared" ref="AA34:AA52" si="23">H34-H$55</f>
         <v>0.12474960090860784</v>
       </c>
       <c r="AB34">
-        <f>I34-I$55</f>
+        <f t="shared" ref="AB34:AB52" si="24">I34-I$55</f>
         <v>8.9512709793137232E-2</v>
       </c>
       <c r="AC34">
-        <f>J34-J$55</f>
+        <f t="shared" ref="AC34:AC52" si="25">J34-J$55</f>
         <v>-0.34181778394568629</v>
       </c>
       <c r="AD34">
-        <f>K34-K$55</f>
+        <f t="shared" ref="AD34:AD52" si="26">K34-K$55</f>
         <v>0.2823548098829412</v>
       </c>
       <c r="AE34">
-        <f>L34-L$55</f>
+        <f t="shared" ref="AE34:AE52" si="27">L34-L$55</f>
         <v>0.41519769315662747</v>
       </c>
       <c r="AF34">
-        <f>M34-M$55</f>
+        <f t="shared" ref="AF34:AF52" si="28">M34-M$55</f>
         <v>0.13907121094931374</v>
       </c>
       <c r="AG34">
-        <f>N34-N$55</f>
+        <f t="shared" ref="AG34:AG52" si="29">N34-N$55</f>
         <v>-0.34443339974450982</v>
       </c>
       <c r="AH34">
-        <f>O34-O$55</f>
+        <f t="shared" ref="AH34:AH52" si="30">O34-O$55</f>
         <v>-0.71638617600411769</v>
       </c>
       <c r="AJ34">
         <v>1</v>
       </c>
       <c r="AK34">
-        <f>Q34-Q$55</f>
+        <f t="shared" ref="AK34:AK52" si="31">Q34-Q$55</f>
         <v>2.7558787305856873E-4</v>
       </c>
       <c r="AL34">
-        <f>R34-R$55</f>
+        <f t="shared" ref="AL34:AL52" si="32">R34-R$55</f>
         <v>-5.1179526546289731</v>
       </c>
       <c r="AM34">
-        <f>S34-S$55</f>
+        <f t="shared" ref="AM34:AM52" si="33">S34-S$55</f>
         <v>9.7101196557567326E-2</v>
       </c>
     </row>
@@ -28172,74 +28172,74 @@
         <v>-2.6829480500970698E-2</v>
       </c>
       <c r="U35">
-        <f>B35-B$55</f>
+        <f t="shared" si="17"/>
         <v>-0.25927522480101961</v>
       </c>
       <c r="V35">
-        <f>C35-C$55</f>
+        <f t="shared" si="18"/>
         <v>0.43869986905937253</v>
       </c>
       <c r="W35">
-        <f>D35-D$55</f>
+        <f t="shared" si="19"/>
         <v>0.47983555479352941</v>
       </c>
       <c r="X35">
-        <f>E35-E$55</f>
+        <f t="shared" si="20"/>
         <v>6.5587903051862712E-2</v>
       </c>
       <c r="Y35">
-        <f>F35-F$55</f>
+        <f t="shared" si="21"/>
         <v>-5.4854024218039227E-2</v>
       </c>
       <c r="Z35">
-        <f>G35-G$55</f>
+        <f t="shared" si="22"/>
         <v>-0.50089785090201966</v>
       </c>
       <c r="AA35">
-        <f>H35-H$55</f>
+        <f t="shared" si="23"/>
         <v>-0.24357164343139215</v>
       </c>
       <c r="AB35">
-        <f>I35-I$55</f>
+        <f t="shared" si="24"/>
         <v>-0.29273267363686278</v>
       </c>
       <c r="AC35">
-        <f>J35-J$55</f>
+        <f t="shared" si="25"/>
         <v>-3.402283694568628E-2</v>
       </c>
       <c r="AD35">
-        <f>K35-K$55</f>
+        <f t="shared" si="26"/>
         <v>0.4893607061829412</v>
       </c>
       <c r="AE35">
-        <f>L35-L$55</f>
+        <f t="shared" si="27"/>
         <v>-1.0189753433725163E-3</v>
       </c>
       <c r="AF35">
-        <f>M35-M$55</f>
+        <f t="shared" si="28"/>
         <v>0.18368328151431373</v>
       </c>
       <c r="AG35">
-        <f>N35-N$55</f>
+        <f t="shared" si="29"/>
         <v>-0.58549470804450976</v>
       </c>
       <c r="AH35">
-        <f>O35-O$55</f>
+        <f t="shared" si="30"/>
         <v>-0.41489266580411766</v>
       </c>
       <c r="AJ35">
         <v>1</v>
       </c>
       <c r="AK35">
-        <f>Q35-Q$55</f>
+        <f t="shared" si="31"/>
         <v>2.5182052095436784E-4</v>
       </c>
       <c r="AL35">
-        <f>R35-R$55</f>
+        <f t="shared" si="32"/>
         <v>1.562310864658129</v>
       </c>
       <c r="AM35">
-        <f>S35-S$55</f>
+        <f t="shared" si="33"/>
         <v>-2.9814896224954673E-2</v>
       </c>
     </row>
@@ -28299,74 +28299,74 @@
         <v>-4.3376190230570683E-2</v>
       </c>
       <c r="U36">
-        <f>B36-B$55</f>
+        <f t="shared" si="17"/>
         <v>-0.26108661930101962</v>
       </c>
       <c r="V36">
-        <f>C36-C$55</f>
+        <f t="shared" si="18"/>
         <v>-0.14572170594062747</v>
       </c>
       <c r="W36">
-        <f>D36-D$55</f>
+        <f t="shared" si="19"/>
         <v>0.33510697449352944</v>
       </c>
       <c r="X36">
-        <f>E36-E$55</f>
+        <f t="shared" si="20"/>
         <v>0.76969125865186272</v>
       </c>
       <c r="Y36">
-        <f>F36-F$55</f>
+        <f t="shared" si="21"/>
         <v>1.3068026838819606</v>
       </c>
       <c r="Z36">
-        <f>G36-G$55</f>
+        <f t="shared" si="22"/>
         <v>0.81455624909798041</v>
       </c>
       <c r="AA36">
-        <f>H36-H$55</f>
+        <f t="shared" si="23"/>
         <v>0.52644036406860784</v>
       </c>
       <c r="AB36">
-        <f>I36-I$55</f>
+        <f t="shared" si="24"/>
         <v>0.4929447466631372</v>
       </c>
       <c r="AC36">
-        <f>J36-J$55</f>
+        <f t="shared" si="25"/>
         <v>0.83449782045431364</v>
       </c>
       <c r="AD36">
-        <f>K36-K$55</f>
+        <f t="shared" si="26"/>
         <v>1.0700553608829413</v>
       </c>
       <c r="AE36">
-        <f>L36-L$55</f>
+        <f t="shared" si="27"/>
         <v>0.12721036651662748</v>
       </c>
       <c r="AF36">
-        <f>M36-M$55</f>
+        <f t="shared" si="28"/>
         <v>0.87689381385931375</v>
       </c>
       <c r="AG36">
-        <f>N36-N$55</f>
+        <f t="shared" si="29"/>
         <v>6.3677578675490204E-2</v>
       </c>
       <c r="AH36">
-        <f>O36-O$55</f>
+        <f t="shared" si="30"/>
         <v>0.5831135823958824</v>
       </c>
       <c r="AJ36">
         <v>1</v>
       </c>
       <c r="AK36">
-        <f>Q36-Q$55</f>
+        <f t="shared" si="31"/>
         <v>-2.3596675829122334E-3</v>
       </c>
       <c r="AL36">
-        <f>R36-R$55</f>
+        <f t="shared" si="32"/>
         <v>-23.670713732509874</v>
       </c>
       <c r="AM36">
-        <f>S36-S$55</f>
+        <f t="shared" si="33"/>
         <v>-4.6361605954554658E-2</v>
       </c>
     </row>
@@ -28426,74 +28426,74 @@
         <v>0.1569417589463693</v>
       </c>
       <c r="U37">
-        <f>B37-B$55</f>
+        <f t="shared" si="17"/>
         <v>0.79242385229898038</v>
       </c>
       <c r="V37">
-        <f>C37-C$55</f>
+        <f t="shared" si="18"/>
         <v>0.23785176205937253</v>
       </c>
       <c r="W37">
-        <f>D37-D$55</f>
+        <f t="shared" si="19"/>
         <v>-0.18203353210647061</v>
       </c>
       <c r="X37">
-        <f>E37-E$55</f>
+        <f t="shared" si="20"/>
         <v>7.2342725631862712E-2</v>
       </c>
       <c r="Y37">
-        <f>F37-F$55</f>
+        <f t="shared" si="21"/>
         <v>-0.20272632261803925</v>
       </c>
       <c r="Z37">
-        <f>G37-G$55</f>
+        <f t="shared" si="22"/>
         <v>-4.7670493502019601E-2</v>
       </c>
       <c r="AA37">
-        <f>H37-H$55</f>
+        <f t="shared" si="23"/>
         <v>0.44247489746860785</v>
       </c>
       <c r="AB37">
-        <f>I37-I$55</f>
+        <f t="shared" si="24"/>
         <v>0.77359467166313722</v>
       </c>
       <c r="AC37">
-        <f>J37-J$55</f>
+        <f t="shared" si="25"/>
         <v>-0.23211943794568629</v>
       </c>
       <c r="AD37">
-        <f>K37-K$55</f>
+        <f t="shared" si="26"/>
         <v>0.96371696938294127</v>
       </c>
       <c r="AE37">
-        <f>L37-L$55</f>
+        <f t="shared" si="27"/>
         <v>-2.1867048743372502E-2</v>
       </c>
       <c r="AF37">
-        <f>M37-M$55</f>
+        <f t="shared" si="28"/>
         <v>0.32711031675931374</v>
       </c>
       <c r="AG37">
-        <f>N37-N$55</f>
+        <f t="shared" si="29"/>
         <v>0.19242964039549021</v>
       </c>
       <c r="AH37">
-        <f>O37-O$55</f>
+        <f t="shared" si="30"/>
         <v>-0.16803337710411764</v>
       </c>
       <c r="AJ37">
         <v>1</v>
       </c>
       <c r="AK37">
-        <f>Q37-Q$55</f>
+        <f t="shared" si="31"/>
         <v>-3.1268650428483303E-3</v>
       </c>
       <c r="AL37">
-        <f>R37-R$55</f>
+        <f t="shared" si="32"/>
         <v>-21.374952624111373</v>
       </c>
       <c r="AM37">
-        <f>S37-S$55</f>
+        <f t="shared" si="33"/>
         <v>0.15395634322238533</v>
       </c>
     </row>
@@ -28553,74 +28553,74 @@
         <v>-6.3592377464230687E-2</v>
       </c>
       <c r="U38">
-        <f>B38-B$55</f>
+        <f t="shared" si="17"/>
         <v>-0.2153841856010196</v>
       </c>
       <c r="V38">
-        <f>C38-C$55</f>
+        <f t="shared" si="18"/>
         <v>0.34557561485937249</v>
       </c>
       <c r="W38">
-        <f>D38-D$55</f>
+        <f t="shared" si="19"/>
         <v>-0.40294823130647062</v>
       </c>
       <c r="X38">
-        <f>E38-E$55</f>
+        <f t="shared" si="20"/>
         <v>-0.44932601814813722</v>
       </c>
       <c r="Y38">
-        <f>F38-F$55</f>
+        <f t="shared" si="21"/>
         <v>-0.28085725311803922</v>
       </c>
       <c r="Z38">
-        <f>G38-G$55</f>
+        <f t="shared" si="22"/>
         <v>-0.29388410070201959</v>
       </c>
       <c r="AA38">
-        <f>H38-H$55</f>
+        <f t="shared" si="23"/>
         <v>-0.66276672253139213</v>
       </c>
       <c r="AB38">
-        <f>I38-I$55</f>
+        <f t="shared" si="24"/>
         <v>-0.11535459143686277</v>
       </c>
       <c r="AC38">
-        <f>J38-J$55</f>
+        <f t="shared" si="25"/>
         <v>0.7202278491543137</v>
       </c>
       <c r="AD38">
-        <f>K38-K$55</f>
+        <f t="shared" si="26"/>
         <v>-0.17837800921705882</v>
       </c>
       <c r="AE38">
-        <f>L38-L$55</f>
+        <f t="shared" si="27"/>
         <v>0.39780501065662749</v>
       </c>
       <c r="AF38">
-        <f>M38-M$55</f>
+        <f t="shared" si="28"/>
         <v>6.2994932959313743E-2</v>
       </c>
       <c r="AG38">
-        <f>N38-N$55</f>
+        <f t="shared" si="29"/>
         <v>0.66383498295549026</v>
       </c>
       <c r="AH38">
-        <f>O38-O$55</f>
+        <f t="shared" si="30"/>
         <v>-0.18313273090411769</v>
       </c>
       <c r="AJ38">
         <v>1</v>
       </c>
       <c r="AK38">
-        <f>Q38-Q$55</f>
+        <f t="shared" si="31"/>
         <v>4.5278111710121676E-3</v>
       </c>
       <c r="AL38">
-        <f>R38-R$55</f>
+        <f t="shared" si="32"/>
         <v>8.5491120121190232</v>
       </c>
       <c r="AM38">
-        <f>S38-S$55</f>
+        <f t="shared" si="33"/>
         <v>-6.6577793188214662E-2</v>
       </c>
     </row>
@@ -28680,74 +28680,74 @@
         <v>-8.4099929837496978E-3</v>
       </c>
       <c r="U39">
-        <f>B39-B$55</f>
+        <f t="shared" si="17"/>
         <v>0.10482137409898039</v>
       </c>
       <c r="V39">
-        <f>C39-C$55</f>
+        <f t="shared" si="18"/>
         <v>0.23694547525937254</v>
       </c>
       <c r="W39">
-        <f>D39-D$55</f>
+        <f t="shared" si="19"/>
         <v>-4.412327570647058E-2</v>
       </c>
       <c r="X39">
-        <f>E39-E$55</f>
+        <f t="shared" si="20"/>
         <v>-1.2862932837481373</v>
       </c>
       <c r="Y39">
-        <f>F39-F$55</f>
+        <f t="shared" si="21"/>
         <v>-0.89095037611803929</v>
       </c>
       <c r="Z39">
-        <f>G39-G$55</f>
+        <f t="shared" si="22"/>
         <v>-0.48018805620201965</v>
       </c>
       <c r="AA39">
-        <f>H39-H$55</f>
+        <f t="shared" si="23"/>
         <v>-7.8900368231392154E-2</v>
       </c>
       <c r="AB39">
-        <f>I39-I$55</f>
+        <f t="shared" si="24"/>
         <v>0.10995296138313723</v>
       </c>
       <c r="AC39">
-        <f>J39-J$55</f>
+        <f t="shared" si="25"/>
         <v>-0.18486461254568626</v>
       </c>
       <c r="AD39">
-        <f>K39-K$55</f>
+        <f t="shared" si="26"/>
         <v>-0.54936145811705872</v>
       </c>
       <c r="AE39">
-        <f>L39-L$55</f>
+        <f t="shared" si="27"/>
         <v>0.44452009005662746</v>
       </c>
       <c r="AF39">
-        <f>M39-M$55</f>
+        <f t="shared" si="28"/>
         <v>-9.8787902406862749E-3</v>
       </c>
       <c r="AG39">
-        <f>N39-N$55</f>
+        <f t="shared" si="29"/>
         <v>-0.61120766674450977</v>
       </c>
       <c r="AH39">
-        <f>O39-O$55</f>
+        <f t="shared" si="30"/>
         <v>-0.23630109190411769</v>
       </c>
       <c r="AJ39">
         <v>1</v>
       </c>
       <c r="AK39">
-        <f>Q39-Q$55</f>
+        <f t="shared" si="31"/>
         <v>3.0840637399723678E-3</v>
       </c>
       <c r="AL39">
-        <f>R39-R$55</f>
+        <f t="shared" si="32"/>
         <v>12.465013196201125</v>
       </c>
       <c r="AM39">
-        <f>S39-S$55</f>
+        <f t="shared" si="33"/>
         <v>-1.1395408707733673E-2</v>
       </c>
     </row>
@@ -28807,74 +28807,74 @@
         <v>-0.11915076512266158</v>
       </c>
       <c r="U40">
-        <f>B40-B$55</f>
+        <f t="shared" si="17"/>
         <v>-0.2882328445010196</v>
       </c>
       <c r="V40">
-        <f>C40-C$55</f>
+        <f t="shared" si="18"/>
         <v>5.7051038449372538E-2</v>
       </c>
       <c r="W40">
-        <f>D40-D$55</f>
+        <f t="shared" si="19"/>
         <v>0.3124851816935294</v>
       </c>
       <c r="X40">
-        <f>E40-E$55</f>
+        <f t="shared" si="20"/>
         <v>0.31226063235186274</v>
       </c>
       <c r="Y40">
-        <f>F40-F$55</f>
+        <f t="shared" si="21"/>
         <v>-0.13634258091803925</v>
       </c>
       <c r="Z40">
-        <f>G40-G$55</f>
+        <f t="shared" si="22"/>
         <v>0.24811842979798038</v>
       </c>
       <c r="AA40">
-        <f>H40-H$55</f>
+        <f t="shared" si="23"/>
         <v>0.94783131516860786</v>
       </c>
       <c r="AB40">
-        <f>I40-I$55</f>
+        <f t="shared" si="24"/>
         <v>0.74746056186313725</v>
       </c>
       <c r="AC40">
-        <f>J40-J$55</f>
+        <f t="shared" si="25"/>
         <v>0.4827058264543137</v>
       </c>
       <c r="AD40">
-        <f>K40-K$55</f>
+        <f t="shared" si="26"/>
         <v>0.80383795408294123</v>
       </c>
       <c r="AE40">
-        <f>L40-L$55</f>
+        <f t="shared" si="27"/>
         <v>-0.1342529536433725</v>
       </c>
       <c r="AF40">
-        <f>M40-M$55</f>
+        <f t="shared" si="28"/>
         <v>-0.11270342094068628</v>
       </c>
       <c r="AG40">
-        <f>N40-N$55</f>
+        <f t="shared" si="29"/>
         <v>0.43239851195549017</v>
       </c>
       <c r="AH40">
-        <f>O40-O$55</f>
+        <f t="shared" si="30"/>
         <v>0.91475889739588234</v>
       </c>
       <c r="AJ40">
         <v>1</v>
       </c>
       <c r="AK40">
-        <f>Q40-Q$55</f>
+        <f t="shared" si="31"/>
         <v>-9.3521445752213321E-3</v>
       </c>
       <c r="AL40">
-        <f>R40-R$55</f>
+        <f t="shared" si="32"/>
         <v>20.132455517978428</v>
       </c>
       <c r="AM40">
-        <f>S40-S$55</f>
+        <f t="shared" si="33"/>
         <v>-0.12213618084664556</v>
       </c>
     </row>
@@ -28934,74 +28934,74 @@
         <v>-0.10874282121248809</v>
       </c>
       <c r="U41">
-        <f>B41-B$55</f>
+        <f t="shared" si="17"/>
         <v>0.52802138239898033</v>
       </c>
       <c r="V41">
-        <f>C41-C$55</f>
+        <f t="shared" si="18"/>
         <v>-0.15674596054062748</v>
       </c>
       <c r="W41">
-        <f>D41-D$55</f>
+        <f t="shared" si="19"/>
         <v>-0.2521969610064706</v>
       </c>
       <c r="X41">
-        <f>E41-E$55</f>
+        <f t="shared" si="20"/>
         <v>-0.56895686724813721</v>
       </c>
       <c r="Y41">
-        <f>F41-F$55</f>
+        <f t="shared" si="21"/>
         <v>-0.76481866691803924</v>
       </c>
       <c r="Z41">
-        <f>G41-G$55</f>
+        <f t="shared" si="22"/>
         <v>-0.65545998170201958</v>
       </c>
       <c r="AA41">
-        <f>H41-H$55</f>
+        <f t="shared" si="23"/>
         <v>-0.14330315253139214</v>
       </c>
       <c r="AB41">
-        <f>I41-I$55</f>
+        <f t="shared" si="24"/>
         <v>1.2441172631372302E-3</v>
       </c>
       <c r="AC41">
-        <f>J41-J$55</f>
+        <f t="shared" si="25"/>
         <v>-0.3782270936456863</v>
       </c>
       <c r="AD41">
-        <f>K41-K$55</f>
+        <f t="shared" si="26"/>
         <v>0.23721940408294118</v>
       </c>
       <c r="AE41">
-        <f>L41-L$55</f>
+        <f t="shared" si="27"/>
         <v>-0.72291808674337255</v>
       </c>
       <c r="AF41">
-        <f>M41-M$55</f>
+        <f t="shared" si="28"/>
         <v>-0.32139694384068629</v>
       </c>
       <c r="AG41">
-        <f>N41-N$55</f>
+        <f t="shared" si="29"/>
         <v>-0.26677821774450983</v>
       </c>
       <c r="AH41">
-        <f>O41-O$55</f>
+        <f t="shared" si="30"/>
         <v>-2.8405305804117681E-2</v>
       </c>
       <c r="AJ41">
         <v>1</v>
       </c>
       <c r="AK41">
-        <f>Q41-Q$55</f>
+        <f t="shared" si="31"/>
         <v>1.5210120244791689E-3</v>
       </c>
       <c r="AL41">
-        <f>R41-R$55</f>
+        <f t="shared" si="32"/>
         <v>8.1382920047948328</v>
       </c>
       <c r="AM41">
-        <f>S41-S$55</f>
+        <f t="shared" si="33"/>
         <v>-0.11172823693647206</v>
       </c>
     </row>
@@ -29061,74 +29061,74 @@
         <v>-1.6774576253425683E-2</v>
       </c>
       <c r="U42">
-        <f>B42-B$55</f>
+        <f t="shared" si="17"/>
         <v>-0.13354819980101959</v>
       </c>
       <c r="V42">
-        <f>C42-C$55</f>
+        <f t="shared" si="18"/>
         <v>-0.4088387510406275</v>
       </c>
       <c r="W42">
-        <f>D42-D$55</f>
+        <f t="shared" si="19"/>
         <v>0.31362775119352942</v>
       </c>
       <c r="X42">
-        <f>E42-E$55</f>
+        <f t="shared" si="20"/>
         <v>-0.26475114964813729</v>
       </c>
       <c r="Y42">
-        <f>F42-F$55</f>
+        <f t="shared" si="21"/>
         <v>-0.71171976551803917</v>
       </c>
       <c r="Z42">
-        <f>G42-G$55</f>
+        <f t="shared" si="22"/>
         <v>-0.3585191619020196</v>
       </c>
       <c r="AA42">
-        <f>H42-H$55</f>
+        <f t="shared" si="23"/>
         <v>-0.25966427563139216</v>
       </c>
       <c r="AB42">
-        <f>I42-I$55</f>
+        <f t="shared" si="24"/>
         <v>-6.5871782536862766E-2</v>
       </c>
       <c r="AC42">
-        <f>J42-J$55</f>
+        <f t="shared" si="25"/>
         <v>-0.35662197434568627</v>
       </c>
       <c r="AD42">
-        <f>K42-K$55</f>
+        <f t="shared" si="26"/>
         <v>-0.18584345561705881</v>
       </c>
       <c r="AE42">
-        <f>L42-L$55</f>
+        <f t="shared" si="27"/>
         <v>0.34463687125662745</v>
       </c>
       <c r="AF42">
-        <f>M42-M$55</f>
+        <f t="shared" si="28"/>
         <v>0.14925173896931374</v>
       </c>
       <c r="AG42">
-        <f>N42-N$55</f>
+        <f t="shared" si="29"/>
         <v>0.23068902665549021</v>
       </c>
       <c r="AH42">
-        <f>O42-O$55</f>
+        <f t="shared" si="30"/>
         <v>-0.56592225360411763</v>
       </c>
       <c r="AJ42">
         <v>1</v>
       </c>
       <c r="AK42">
-        <f>Q42-Q$55</f>
+        <f t="shared" si="31"/>
         <v>-4.030739678544731E-3</v>
       </c>
       <c r="AL42">
-        <f>R42-R$55</f>
+        <f t="shared" si="32"/>
         <v>8.0074173710058272</v>
       </c>
       <c r="AM42">
-        <f>S42-S$55</f>
+        <f t="shared" si="33"/>
         <v>-1.9759991977409658E-2</v>
       </c>
     </row>
@@ -29188,74 +29188,74 @@
         <v>-8.9279323761596682E-2</v>
       </c>
       <c r="U43">
-        <f>B43-B$55</f>
+        <f t="shared" si="17"/>
         <v>0.17779679199898041</v>
       </c>
       <c r="V43">
-        <f>C43-C$55</f>
+        <f t="shared" si="18"/>
         <v>0.47670685075937258</v>
       </c>
       <c r="W43">
-        <f>D43-D$55</f>
+        <f t="shared" si="19"/>
         <v>5.0660410393529427E-2</v>
       </c>
       <c r="X43">
-        <f>E43-E$55</f>
+        <f t="shared" si="20"/>
         <v>-2.6042800048137277E-2</v>
       </c>
       <c r="Y43">
-        <f>F43-F$55</f>
+        <f t="shared" si="21"/>
         <v>0.19497881641196077</v>
       </c>
       <c r="Z43">
-        <f>G43-G$55</f>
+        <f t="shared" si="22"/>
         <v>-0.20509475020201962</v>
       </c>
       <c r="AA43">
-        <f>H43-H$55</f>
+        <f t="shared" si="23"/>
         <v>-0.19686140973139216</v>
       </c>
       <c r="AB43">
-        <f>I43-I$55</f>
+        <f t="shared" si="24"/>
         <v>-3.2783091368627712E-3</v>
       </c>
       <c r="AC43">
-        <f>J43-J$55</f>
+        <f t="shared" si="25"/>
         <v>0.51190574575431369</v>
       </c>
       <c r="AD43">
-        <f>K43-K$55</f>
+        <f t="shared" si="26"/>
         <v>0.56907298488294122</v>
       </c>
       <c r="AE43">
-        <f>L43-L$55</f>
+        <f t="shared" si="27"/>
         <v>0.11127617571862748</v>
       </c>
       <c r="AF43">
-        <f>M43-M$55</f>
+        <f t="shared" si="28"/>
         <v>-0.55823339814068629</v>
       </c>
       <c r="AG43">
-        <f>N43-N$55</f>
+        <f t="shared" si="29"/>
         <v>2.649676080549021E-2</v>
       </c>
       <c r="AH43">
-        <f>O43-O$55</f>
+        <f t="shared" si="30"/>
         <v>0.34075729029588231</v>
       </c>
       <c r="AJ43">
         <v>1</v>
       </c>
       <c r="AK43">
-        <f>Q43-Q$55</f>
+        <f t="shared" si="31"/>
         <v>-5.4822450266311332E-3</v>
       </c>
       <c r="AL43">
-        <f>R43-R$55</f>
+        <f t="shared" si="32"/>
         <v>11.984200322509734</v>
       </c>
       <c r="AM43">
-        <f>S43-S$55</f>
+        <f t="shared" si="33"/>
         <v>-9.2264739485580657E-2</v>
       </c>
     </row>
@@ -29315,74 +29315,74 @@
         <v>-4.8434626594337699E-2</v>
       </c>
       <c r="U44">
-        <f>B44-B$55</f>
+        <f t="shared" si="17"/>
         <v>-0.67390549560101964</v>
       </c>
       <c r="V44">
-        <f>C44-C$55</f>
+        <f t="shared" si="18"/>
         <v>-0.63034844914062749</v>
       </c>
       <c r="W44">
-        <f>D44-D$55</f>
+        <f t="shared" si="19"/>
         <v>-0.9570303186064707</v>
       </c>
       <c r="X44">
-        <f>E44-E$55</f>
+        <f t="shared" si="20"/>
         <v>-0.66135991754813728</v>
       </c>
       <c r="Y44">
-        <f>F44-F$55</f>
+        <f t="shared" si="21"/>
         <v>-0.74515370761803923</v>
       </c>
       <c r="Z44">
-        <f>G44-G$55</f>
+        <f t="shared" si="22"/>
         <v>-0.80091864760201958</v>
       </c>
       <c r="AA44">
-        <f>H44-H$55</f>
+        <f t="shared" si="23"/>
         <v>-0.14088934063139213</v>
       </c>
       <c r="AB44">
-        <f>I44-I$55</f>
+        <f t="shared" si="24"/>
         <v>-0.12718564633686277</v>
       </c>
       <c r="AC44">
-        <f>J44-J$55</f>
+        <f t="shared" si="25"/>
         <v>-0.74947345694568623</v>
       </c>
       <c r="AD44">
-        <f>K44-K$55</f>
+        <f t="shared" si="26"/>
         <v>-0.11112402571705882</v>
       </c>
       <c r="AE44">
-        <f>L44-L$55</f>
+        <f t="shared" si="27"/>
         <v>-1.0672064877433725</v>
       </c>
       <c r="AF44">
-        <f>M44-M$55</f>
+        <f t="shared" si="28"/>
         <v>-1.1593315647406861</v>
       </c>
       <c r="AG44">
-        <f>N44-N$55</f>
+        <f t="shared" si="29"/>
         <v>-1.2663844546445098</v>
       </c>
       <c r="AH44">
-        <f>O44-O$55</f>
+        <f t="shared" si="30"/>
         <v>-0.58880684910411762</v>
       </c>
       <c r="AJ44">
         <v>1</v>
       </c>
       <c r="AK44">
-        <f>Q44-Q$55</f>
+        <f t="shared" si="31"/>
         <v>2.2592416270544678E-3</v>
       </c>
       <c r="AL44">
-        <f>R44-R$55</f>
+        <f t="shared" si="32"/>
         <v>-7.135359201372574</v>
       </c>
       <c r="AM44">
-        <f>S44-S$55</f>
+        <f t="shared" si="33"/>
         <v>-5.1420042318321674E-2</v>
       </c>
     </row>
@@ -29442,74 +29442,74 @@
         <v>4.9440225250699299E-2</v>
       </c>
       <c r="U45">
-        <f>B45-B$55</f>
+        <f t="shared" si="17"/>
         <v>-1.3354086866010195</v>
       </c>
       <c r="V45">
-        <f>C45-C$55</f>
+        <f t="shared" si="18"/>
         <v>-1.4429996670406275</v>
       </c>
       <c r="W45">
-        <f>D45-D$55</f>
+        <f t="shared" si="19"/>
         <v>-0.76992781380647057</v>
       </c>
       <c r="X45">
-        <f>E45-E$55</f>
+        <f t="shared" si="20"/>
         <v>-0.5009433516481373</v>
       </c>
       <c r="Y45">
-        <f>F45-F$55</f>
+        <f t="shared" si="21"/>
         <v>-0.61240511841803924</v>
       </c>
       <c r="Z45">
-        <f>G45-G$55</f>
+        <f t="shared" si="22"/>
         <v>-0.77259167160201958</v>
       </c>
       <c r="AA45">
-        <f>H45-H$55</f>
+        <f t="shared" si="23"/>
         <v>-1.2009630876313921</v>
       </c>
       <c r="AB45">
-        <f>I45-I$55</f>
+        <f t="shared" si="24"/>
         <v>-1.1201692476368628</v>
       </c>
       <c r="AC45">
-        <f>J45-J$55</f>
+        <f t="shared" si="25"/>
         <v>-0.8330145613456863</v>
       </c>
       <c r="AD45">
-        <f>K45-K$55</f>
+        <f t="shared" si="26"/>
         <v>-2.0100161391170586</v>
       </c>
       <c r="AE45">
-        <f>L45-L$55</f>
+        <f t="shared" si="27"/>
         <v>-0.4407568848433725</v>
       </c>
       <c r="AF45">
-        <f>M45-M$55</f>
+        <f t="shared" si="28"/>
         <v>-0.90077846174068632</v>
       </c>
       <c r="AG45">
-        <f>N45-N$55</f>
+        <f t="shared" si="29"/>
         <v>-0.86818852924450973</v>
       </c>
       <c r="AH45">
-        <f>O45-O$55</f>
+        <f t="shared" si="30"/>
         <v>-0.94095858850411773</v>
       </c>
       <c r="AJ45">
         <v>1</v>
       </c>
       <c r="AK45">
-        <f>Q45-Q$55</f>
+        <f t="shared" si="31"/>
         <v>5.9716424484756807E-4</v>
       </c>
       <c r="AL45">
-        <f>R45-R$55</f>
+        <f t="shared" si="32"/>
         <v>-11.056658098964876</v>
       </c>
       <c r="AM45">
-        <f>S45-S$55</f>
+        <f t="shared" si="33"/>
         <v>4.6454809526715324E-2</v>
       </c>
     </row>
@@ -29569,74 +29569,74 @@
         <v>-6.09202731629227E-2</v>
       </c>
       <c r="U46">
-        <f>B46-B$55</f>
+        <f t="shared" si="17"/>
         <v>-9.3656974881019608E-2</v>
       </c>
       <c r="V46">
-        <f>C46-C$55</f>
+        <f t="shared" si="18"/>
         <v>-6.1056157740627448E-2</v>
       </c>
       <c r="W46">
-        <f>D46-D$55</f>
+        <f t="shared" si="19"/>
         <v>-0.23468829270647057</v>
       </c>
       <c r="X46">
-        <f>E46-E$55</f>
+        <f t="shared" si="20"/>
         <v>4.8983687151862715E-2</v>
       </c>
       <c r="Y46">
-        <f>F46-F$55</f>
+        <f t="shared" si="21"/>
         <v>-0.1071456947180392</v>
       </c>
       <c r="Z46">
-        <f>G46-G$55</f>
+        <f t="shared" si="22"/>
         <v>-0.21971372170201964</v>
       </c>
       <c r="AA46">
-        <f>H46-H$55</f>
+        <f t="shared" si="23"/>
         <v>-0.33940556643139214</v>
       </c>
       <c r="AB46">
-        <f>I46-I$55</f>
+        <f t="shared" si="24"/>
         <v>-0.2745751308368628</v>
       </c>
       <c r="AC46">
-        <f>J46-J$55</f>
+        <f t="shared" si="25"/>
         <v>-0.19995415004568629</v>
       </c>
       <c r="AD46">
-        <f>K46-K$55</f>
+        <f t="shared" si="26"/>
         <v>-0.25986227151705882</v>
       </c>
       <c r="AE46">
-        <f>L46-L$55</f>
+        <f t="shared" si="27"/>
         <v>-9.6759986433725131E-3</v>
       </c>
       <c r="AF46">
-        <f>M46-M$55</f>
+        <f t="shared" si="28"/>
         <v>-0.25696367574068624</v>
       </c>
       <c r="AG46">
-        <f>N46-N$55</f>
+        <f t="shared" si="29"/>
         <v>0.39764501925549023</v>
       </c>
       <c r="AH46">
-        <f>O46-O$55</f>
+        <f t="shared" si="30"/>
         <v>-6.1302747004117669E-2</v>
       </c>
       <c r="AJ46">
         <v>1</v>
       </c>
       <c r="AK46">
-        <f>Q46-Q$55</f>
+        <f t="shared" si="31"/>
         <v>6.2938297404816681E-3</v>
       </c>
       <c r="AL46">
-        <f>R46-R$55</f>
+        <f t="shared" si="32"/>
         <v>11.740068127841722</v>
       </c>
       <c r="AM46">
-        <f>S46-S$55</f>
+        <f t="shared" si="33"/>
         <v>-6.3905688886906675E-2</v>
       </c>
     </row>
@@ -29696,74 +29696,74 @@
         <v>-8.9015310641975681E-2</v>
       </c>
       <c r="U47">
-        <f>B47-B$55</f>
+        <f t="shared" si="17"/>
         <v>0.51936342049898032</v>
       </c>
       <c r="V47">
-        <f>C47-C$55</f>
+        <f t="shared" si="18"/>
         <v>0.77702915155937247</v>
       </c>
       <c r="W47">
-        <f>D47-D$55</f>
+        <f t="shared" si="19"/>
         <v>0.47850329259352942</v>
       </c>
       <c r="X47">
-        <f>E47-E$55</f>
+        <f t="shared" si="20"/>
         <v>-1.7325168848137285E-2</v>
       </c>
       <c r="Y47">
-        <f>F47-F$55</f>
+        <f t="shared" si="21"/>
         <v>0.71740863518196085</v>
       </c>
       <c r="Z47">
-        <f>G47-G$55</f>
+        <f t="shared" si="22"/>
         <v>0.34515135459798041</v>
       </c>
       <c r="AA47">
-        <f>H47-H$55</f>
+        <f t="shared" si="23"/>
         <v>0.63491316536860776</v>
       </c>
       <c r="AB47">
-        <f>I47-I$55</f>
+        <f t="shared" si="24"/>
         <v>0.38344454066313721</v>
       </c>
       <c r="AC47">
-        <f>J47-J$55</f>
+        <f t="shared" si="25"/>
         <v>0.21673142605431372</v>
       </c>
       <c r="AD47">
-        <f>K47-K$55</f>
+        <f t="shared" si="26"/>
         <v>0.75770130618294129</v>
       </c>
       <c r="AE47">
-        <f>L47-L$55</f>
+        <f t="shared" si="27"/>
         <v>1.1206287862566275</v>
       </c>
       <c r="AF47">
-        <f>M47-M$55</f>
+        <f t="shared" si="28"/>
         <v>0.76009113225931368</v>
       </c>
       <c r="AG47">
-        <f>N47-N$55</f>
+        <f t="shared" si="29"/>
         <v>0.86861991095549029</v>
       </c>
       <c r="AH47">
-        <f>O47-O$55</f>
+        <f t="shared" si="30"/>
         <v>0.97987746609588233</v>
       </c>
       <c r="AJ47">
         <v>1</v>
       </c>
       <c r="AK47">
-        <f>Q47-Q$55</f>
+        <f t="shared" si="31"/>
         <v>8.2926659424806758E-4</v>
       </c>
       <c r="AL47">
-        <f>R47-R$55</f>
+        <f t="shared" si="32"/>
         <v>8.9350830814550317</v>
       </c>
       <c r="AM47">
-        <f>S47-S$55</f>
+        <f t="shared" si="33"/>
         <v>-9.2000726365959656E-2</v>
       </c>
     </row>
@@ -29823,74 +29823,74 @@
         <v>0.1062647686721333</v>
       </c>
       <c r="U48">
-        <f>B48-B$55</f>
+        <f t="shared" si="17"/>
         <v>0.69773445739898032</v>
       </c>
       <c r="V48">
-        <f>C48-C$55</f>
+        <f t="shared" si="18"/>
         <v>0.84524963155937249</v>
       </c>
       <c r="W48">
-        <f>D48-D$55</f>
+        <f t="shared" si="19"/>
         <v>0.44530264149352938</v>
       </c>
       <c r="X48">
-        <f>E48-E$55</f>
+        <f t="shared" si="20"/>
         <v>-0.70074510594813721</v>
       </c>
       <c r="Y48">
-        <f>F48-F$55</f>
+        <f t="shared" si="21"/>
         <v>-0.71346578241803926</v>
       </c>
       <c r="Z48">
-        <f>G48-G$55</f>
+        <f t="shared" si="22"/>
         <v>0.15278745848798039</v>
       </c>
       <c r="AA48">
-        <f>H48-H$55</f>
+        <f t="shared" si="23"/>
         <v>0.21802650486860783</v>
       </c>
       <c r="AB48">
-        <f>I48-I$55</f>
+        <f t="shared" si="24"/>
         <v>0.2671689288631372</v>
       </c>
       <c r="AC48">
-        <f>J48-J$55</f>
+        <f t="shared" si="25"/>
         <v>0.21763668565431371</v>
       </c>
       <c r="AD48">
-        <f>K48-K$55</f>
+        <f t="shared" si="26"/>
         <v>-0.58792204751705879</v>
       </c>
       <c r="AE48">
-        <f>L48-L$55</f>
+        <f t="shared" si="27"/>
         <v>0.63518571395662748</v>
       </c>
       <c r="AF48">
-        <f>M48-M$55</f>
+        <f t="shared" si="28"/>
         <v>0.56667124395931379</v>
       </c>
       <c r="AG48">
-        <f>N48-N$55</f>
+        <f t="shared" si="29"/>
         <v>0.63282361505549023</v>
       </c>
       <c r="AH48">
-        <f>O48-O$55</f>
+        <f t="shared" si="30"/>
         <v>1.1296724260958824</v>
       </c>
       <c r="AJ48">
         <v>1</v>
       </c>
       <c r="AK48">
-        <f>Q48-Q$55</f>
+        <f t="shared" si="31"/>
         <v>-1.8945334241816331E-3</v>
       </c>
       <c r="AL48">
-        <f>R48-R$55</f>
+        <f t="shared" si="32"/>
         <v>-25.439054796962971</v>
       </c>
       <c r="AM48">
-        <f>S48-S$55</f>
+        <f t="shared" si="33"/>
         <v>0.10327935294814933</v>
       </c>
     </row>
@@ -29950,74 +29950,74 @@
         <v>-0.15394773020221048</v>
       </c>
       <c r="U49">
-        <f>B49-B$55</f>
+        <f t="shared" si="17"/>
         <v>-5.4542868051019607E-2</v>
       </c>
       <c r="V49">
-        <f>C49-C$55</f>
+        <f t="shared" si="18"/>
         <v>9.6839341063372539E-2</v>
       </c>
       <c r="W49">
-        <f>D49-D$55</f>
+        <f t="shared" si="19"/>
         <v>-0.20108353760647057</v>
       </c>
       <c r="X49">
-        <f>E49-E$55</f>
+        <f t="shared" si="20"/>
         <v>-0.22316174334813729</v>
       </c>
       <c r="Y49">
-        <f>F49-F$55</f>
+        <f t="shared" si="21"/>
         <v>-5.4696444318039217E-2</v>
       </c>
       <c r="Z49">
-        <f>G49-G$55</f>
+        <f t="shared" si="22"/>
         <v>-8.4355542602019606E-2</v>
       </c>
       <c r="AA49">
-        <f>H49-H$55</f>
+        <f t="shared" si="23"/>
         <v>0.29046807706860783</v>
       </c>
       <c r="AB49">
-        <f>I49-I$55</f>
+        <f t="shared" si="24"/>
         <v>-7.9665936636862777E-2</v>
       </c>
       <c r="AC49">
-        <f>J49-J$55</f>
+        <f t="shared" si="25"/>
         <v>-0.11111535864568628</v>
       </c>
       <c r="AD49">
-        <f>K49-K$55</f>
+        <f t="shared" si="26"/>
         <v>-0.30541385461705883</v>
       </c>
       <c r="AE49">
-        <f>L49-L$55</f>
+        <f t="shared" si="27"/>
         <v>1.3769756426627477E-2</v>
       </c>
       <c r="AF49">
-        <f>M49-M$55</f>
+        <f t="shared" si="28"/>
         <v>-0.27659823604068623</v>
       </c>
       <c r="AG49">
-        <f>N49-N$55</f>
+        <f t="shared" si="29"/>
         <v>0.14555331703549021</v>
       </c>
       <c r="AH49">
-        <f>O49-O$55</f>
+        <f t="shared" si="30"/>
         <v>-0.20864154220411768</v>
       </c>
       <c r="AJ49">
         <v>1</v>
       </c>
       <c r="AK49">
-        <f>Q49-Q$55</f>
+        <f t="shared" si="31"/>
         <v>-1.0585435456139831E-2</v>
       </c>
       <c r="AL49">
-        <f>R49-R$55</f>
+        <f t="shared" si="32"/>
         <v>20.80510871622063</v>
       </c>
       <c r="AM49">
-        <f>S49-S$55</f>
+        <f t="shared" si="33"/>
         <v>-0.15693314592619445</v>
       </c>
     </row>
@@ -30077,74 +30077,74 @@
         <v>0.62980387451655728</v>
       </c>
       <c r="U50">
-        <f>B50-B$55</f>
+        <f t="shared" si="17"/>
         <v>0.80043278589898037</v>
       </c>
       <c r="V50">
-        <f>C50-C$55</f>
+        <f t="shared" si="18"/>
         <v>0.22059301825937255</v>
       </c>
       <c r="W50">
-        <f>D50-D$55</f>
+        <f t="shared" si="19"/>
         <v>-0.3154497328064706</v>
       </c>
       <c r="X50">
-        <f>E50-E$55</f>
+        <f t="shared" si="20"/>
         <v>-8.4838440448137292E-2</v>
       </c>
       <c r="Y50">
-        <f>F50-F$55</f>
+        <f t="shared" si="21"/>
         <v>-1.3158619911180394</v>
       </c>
       <c r="Z50">
-        <f>G50-G$55</f>
+        <f t="shared" si="22"/>
         <v>0.28352352619798038</v>
       </c>
       <c r="AA50">
-        <f>H50-H$55</f>
+        <f t="shared" si="23"/>
         <v>1.0799773468686078</v>
       </c>
       <c r="AB50">
-        <f>I50-I$55</f>
+        <f t="shared" si="24"/>
         <v>1.4380645553631373</v>
       </c>
       <c r="AC50">
-        <f>J50-J$55</f>
+        <f t="shared" si="25"/>
         <v>-0.23777487434568628</v>
       </c>
       <c r="AD50">
-        <f>K50-K$55</f>
+        <f t="shared" si="26"/>
         <v>2.8021805638829411</v>
       </c>
       <c r="AE50">
-        <f>L50-L$55</f>
+        <f t="shared" si="27"/>
         <v>-0.38157145884337251</v>
       </c>
       <c r="AF50">
-        <f>M50-M$55</f>
+        <f t="shared" si="28"/>
         <v>-0.22460326324068627</v>
       </c>
       <c r="AG50">
-        <f>N50-N$55</f>
+        <f t="shared" si="29"/>
         <v>-0.80740845624450974</v>
       </c>
       <c r="AH50">
-        <f>O50-O$55</f>
+        <f t="shared" si="30"/>
         <v>-0.85881481150411776</v>
       </c>
       <c r="AJ50">
         <v>1</v>
       </c>
       <c r="AK50">
-        <f>Q50-Q$55</f>
+        <f t="shared" si="31"/>
         <v>2.0444898172190685E-3</v>
       </c>
       <c r="AL50">
-        <f>R50-R$55</f>
+        <f t="shared" si="32"/>
         <v>-44.696001360683667</v>
       </c>
       <c r="AM50">
-        <f>S50-S$55</f>
+        <f t="shared" si="33"/>
         <v>0.62681845879257336</v>
       </c>
     </row>
@@ -30204,74 +30204,74 @@
         <v>-1.8605570117354697E-2</v>
       </c>
       <c r="U51">
-        <f>B51-B$55</f>
+        <f t="shared" si="17"/>
         <v>-0.37857884100101963</v>
       </c>
       <c r="V51">
-        <f>C51-C$55</f>
+        <f t="shared" si="18"/>
         <v>-0.45769076404062747</v>
       </c>
       <c r="W51">
-        <f>D51-D$55</f>
+        <f t="shared" si="19"/>
         <v>0.40229466699352939</v>
       </c>
       <c r="X51">
-        <f>E51-E$55</f>
+        <f t="shared" si="20"/>
         <v>0.31939430865186269</v>
       </c>
       <c r="Y51">
-        <f>F51-F$55</f>
+        <f t="shared" si="21"/>
         <v>0.11990983937196079</v>
       </c>
       <c r="Z51">
-        <f>G51-G$55</f>
+        <f t="shared" si="22"/>
         <v>0.36044316139798038</v>
       </c>
       <c r="AA51">
-        <f>H51-H$55</f>
+        <f t="shared" si="23"/>
         <v>-2.7907192731392166E-2</v>
       </c>
       <c r="AB51">
-        <f>I51-I$55</f>
+        <f t="shared" si="24"/>
         <v>0.30770725006313721</v>
       </c>
       <c r="AC51">
-        <f>J51-J$55</f>
+        <f t="shared" si="25"/>
         <v>0.49382106745431376</v>
       </c>
       <c r="AD51">
-        <f>K51-K$55</f>
+        <f t="shared" si="26"/>
         <v>9.1497002294119167E-4</v>
       </c>
       <c r="AE51">
-        <f>L51-L$55</f>
+        <f t="shared" si="27"/>
         <v>0.25278250665662749</v>
       </c>
       <c r="AF51">
-        <f>M51-M$55</f>
+        <f t="shared" si="28"/>
         <v>-0.10630021394068626</v>
       </c>
       <c r="AG51">
-        <f>N51-N$55</f>
+        <f t="shared" si="29"/>
         <v>-9.0465908944509787E-2</v>
       </c>
       <c r="AH51">
-        <f>O51-O$55</f>
+        <f t="shared" si="30"/>
         <v>7.4270086185882336E-2</v>
       </c>
       <c r="AJ51">
         <v>1</v>
       </c>
       <c r="AK51">
-        <f>Q51-Q$55</f>
+        <f t="shared" si="31"/>
         <v>7.1077963574697669E-3</v>
       </c>
       <c r="AL51">
-        <f>R51-R$55</f>
+        <f t="shared" si="32"/>
         <v>-4.0036376216699745</v>
       </c>
       <c r="AM51">
-        <f>S51-S$55</f>
+        <f t="shared" si="33"/>
         <v>-2.1590985841338672E-2</v>
       </c>
     </row>
@@ -30331,132 +30331,132 @@
         <v>0.53003918344758527</v>
       </c>
       <c r="U52">
-        <f>B52-B$55</f>
+        <f t="shared" si="17"/>
         <v>-0.4410868828010196</v>
       </c>
       <c r="V52">
-        <f>C52-C$55</f>
+        <f t="shared" si="18"/>
         <v>9.0819649127372545E-2</v>
       </c>
       <c r="W52">
-        <f>D52-D$55</f>
+        <f t="shared" si="19"/>
         <v>0.19628002348352941</v>
       </c>
       <c r="X52">
-        <f>E52-E$55</f>
+        <f t="shared" si="20"/>
         <v>0.14736908538186272</v>
       </c>
       <c r="Y52">
-        <f>F52-F$55</f>
+        <f t="shared" si="21"/>
         <v>-1.5384088018039227E-2</v>
       </c>
       <c r="Z52">
-        <f>G52-G$55</f>
+        <f t="shared" si="22"/>
         <v>0.60678829179798033</v>
       </c>
       <c r="AA52">
-        <f>H52-H$55</f>
+        <f t="shared" si="23"/>
         <v>0.66554049596860787</v>
       </c>
       <c r="AB52">
-        <f>I52-I$55</f>
+        <f t="shared" si="24"/>
         <v>0.3919878582631372</v>
       </c>
       <c r="AC52">
-        <f>J52-J$55</f>
+        <f t="shared" si="25"/>
         <v>-0.37840526914568628</v>
       </c>
       <c r="AD52">
-        <f>K52-K$55</f>
+        <f t="shared" si="26"/>
         <v>0.16996300918294119</v>
       </c>
       <c r="AE52">
-        <f>L52-L$55</f>
+        <f t="shared" si="27"/>
         <v>0.81848166475662754</v>
       </c>
       <c r="AF52">
-        <f>M52-M$55</f>
+        <f t="shared" si="28"/>
         <v>0.15419614773931373</v>
       </c>
       <c r="AG52">
-        <f>N52-N$55</f>
+        <f t="shared" si="29"/>
         <v>-0.57400038814450971</v>
       </c>
       <c r="AH52">
-        <f>O52-O$55</f>
+        <f t="shared" si="30"/>
         <v>-0.64773417030411762</v>
       </c>
       <c r="AJ52">
         <v>1</v>
       </c>
       <c r="AK52">
-        <f>Q52-Q$55</f>
+        <f t="shared" si="31"/>
         <v>4.503715993361768E-3</v>
       </c>
       <c r="AL52">
-        <f>R52-R$55</f>
+        <f t="shared" si="32"/>
         <v>-39.851383517055773</v>
       </c>
       <c r="AM52">
-        <f>S52-S$55</f>
+        <f t="shared" si="33"/>
         <v>0.52705376772360135</v>
       </c>
     </row>
     <row r="55" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B55">
-        <f>AVERAGE(B2:B52)</f>
+        <f t="shared" ref="B55:O55" si="34">AVERAGE(B2:B52)</f>
         <v>2.1975786010196095E-3</v>
       </c>
       <c r="C55">
-        <f>AVERAGE(C2:C52)</f>
+        <f t="shared" si="34"/>
         <v>-9.3657167959372539E-2</v>
       </c>
       <c r="D55">
-        <f>AVERAGE(D2:D52)</f>
+        <f t="shared" si="34"/>
         <v>-9.9504795393529424E-2</v>
       </c>
       <c r="E55">
-        <f>AVERAGE(E2:E52)</f>
+        <f t="shared" si="34"/>
         <v>-0.17074871925186272</v>
       </c>
       <c r="F55">
-        <f>AVERAGE(F2:F52)</f>
+        <f t="shared" si="34"/>
         <v>-0.15220866488196078</v>
       </c>
       <c r="G55">
-        <f>AVERAGE(G2:G52)</f>
+        <f t="shared" si="34"/>
         <v>-0.14145139179798039</v>
       </c>
       <c r="H55">
-        <f>AVERAGE(H2:H52)</f>
+        <f t="shared" si="34"/>
         <v>-0.14790606936860784</v>
       </c>
       <c r="I55">
-        <f>AVERAGE(I2:I52)</f>
+        <f t="shared" si="34"/>
         <v>-5.8734610363137228E-2</v>
       </c>
       <c r="J55">
-        <f>AVERAGE(J2:J52)</f>
+        <f t="shared" si="34"/>
         <v>-0.11655599755431373</v>
       </c>
       <c r="K55">
-        <f>AVERAGE(K2:K52)</f>
+        <f t="shared" si="34"/>
         <v>-3.5083652882941192E-2</v>
       </c>
       <c r="L55">
-        <f>AVERAGE(L2:L52)</f>
+        <f t="shared" si="34"/>
         <v>-0.10684121925662748</v>
       </c>
       <c r="M55">
-        <f>AVERAGE(M2:M52)</f>
+        <f t="shared" si="34"/>
         <v>-0.19361803325931373</v>
       </c>
       <c r="N55">
-        <f>AVERAGE(N2:N52)</f>
+        <f t="shared" si="34"/>
         <v>-0.11313541035549021</v>
       </c>
       <c r="O55">
-        <f>AVERAGE(O2:O52)</f>
+        <f t="shared" si="34"/>
         <v>-0.16080918049588233</v>
       </c>
       <c r="Q55">
@@ -30472,59 +30472,59 @@
         <v>2.9854157239839751E-3</v>
       </c>
       <c r="U55">
-        <f>AVERAGE(U2:U52)</f>
+        <f t="shared" ref="U55:AH55" si="35">AVERAGE(U2:U52)</f>
         <v>-2.0680624968507818E-17</v>
       </c>
       <c r="V55">
-        <f>AVERAGE(V2:V52)</f>
+        <f t="shared" si="35"/>
         <v>-1.5510468726380864E-17</v>
       </c>
       <c r="W55">
-        <f>AVERAGE(W2:W52)</f>
+        <f t="shared" si="35"/>
         <v>6.5307236742656266E-18</v>
       </c>
       <c r="X55">
-        <f>AVERAGE(X2:X52)</f>
+        <f t="shared" si="35"/>
         <v>-2.9388256534195321E-17</v>
       </c>
       <c r="Y55">
-        <f>AVERAGE(Y2:Y52)</f>
+        <f t="shared" si="35"/>
         <v>-1.1972993402820316E-17</v>
       </c>
       <c r="Z55">
-        <f>AVERAGE(Z2:Z52)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AA55">
-        <f>AVERAGE(AA2:AA52)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AB55">
-        <f>AVERAGE(AB2:AB52)</f>
+        <f t="shared" si="35"/>
         <v>-2.0680624968507818E-17</v>
       </c>
       <c r="AC55">
-        <f>AVERAGE(AC2:AC52)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AD55">
-        <f>AVERAGE(AD2:AD52)</f>
+        <f t="shared" si="35"/>
         <v>3.1565164425617195E-17</v>
       </c>
       <c r="AE55">
-        <f>AVERAGE(AE2:AE52)</f>
+        <f t="shared" si="35"/>
         <v>4.5715065719859385E-17</v>
       </c>
       <c r="AF55">
-        <f>AVERAGE(AF2:AF52)</f>
+        <f t="shared" si="35"/>
         <v>2.1769078914218755E-17</v>
       </c>
       <c r="AG55">
-        <f>AVERAGE(AG2:AG52)</f>
+        <f t="shared" si="35"/>
         <v>2.6122894697062506E-17</v>
       </c>
       <c r="AH55">
-        <f>AVERAGE(AH2:AH52)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AK55">
@@ -37066,7 +37066,7 @@
         <v>-3.0075665084139998E-2</v>
       </c>
       <c r="C54">
-        <f t="shared" ref="C54:U54" si="19">AVERAGE(C2:C51)</f>
+        <f t="shared" ref="C54:S54" si="19">AVERAGE(C2:C51)</f>
         <v>-8.5705946496400023E-2</v>
       </c>
       <c r="D54">
@@ -37207,8 +37207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35AEF800-F7DA-284E-81A1-6DD4EB6EAE23}">
   <dimension ref="A1:BS50"/>
   <sheetViews>
-    <sheetView topLeftCell="Z26" workbookViewId="0">
-      <selection activeCell="AK2" sqref="AK2:AM47"/>
+    <sheetView tabSelected="1" topLeftCell="Y28" workbookViewId="0">
+      <selection activeCell="AM47" sqref="AJ2:AM47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -43216,59 +43216,59 @@
     </row>
     <row r="50" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B50">
-        <f>AVERAGE(B2:B47)</f>
+        <f t="shared" ref="B50:O50" si="19">AVERAGE(B2:B47)</f>
         <v>-2.269371167804347E-2</v>
       </c>
       <c r="C50">
-        <f>AVERAGE(C2:C47)</f>
+        <f t="shared" si="19"/>
         <v>-5.3760753224782439E-3</v>
       </c>
       <c r="D50">
-        <f>AVERAGE(D2:D47)</f>
+        <f t="shared" si="19"/>
         <v>-1.0396571411419567E-2</v>
       </c>
       <c r="E50">
-        <f>AVERAGE(E2:E47)</f>
+        <f t="shared" si="19"/>
         <v>-7.4035100130869627E-2</v>
       </c>
       <c r="F50">
-        <f>AVERAGE(F2:F47)</f>
+        <f t="shared" si="19"/>
         <v>-5.174643567E-2</v>
       </c>
       <c r="G50">
-        <f>AVERAGE(G2:G47)</f>
+        <f t="shared" si="19"/>
         <v>-1.5240612729347839E-3</v>
       </c>
       <c r="H50">
-        <f>AVERAGE(H2:H47)</f>
+        <f t="shared" si="19"/>
         <v>2.7927648067391296E-3</v>
       </c>
       <c r="I50">
-        <f>AVERAGE(I2:I47)</f>
+        <f t="shared" si="19"/>
         <v>-5.1208276809347829E-2</v>
       </c>
       <c r="J50">
-        <f>AVERAGE(J2:J47)</f>
+        <f t="shared" si="19"/>
         <v>-5.0846713161473926E-2</v>
       </c>
       <c r="K50">
-        <f>AVERAGE(K2:K47)</f>
+        <f t="shared" si="19"/>
         <v>3.9184120348804377E-2</v>
       </c>
       <c r="L50">
-        <f>AVERAGE(L2:L47)</f>
+        <f t="shared" si="19"/>
         <v>8.2272185257173721E-3</v>
       </c>
       <c r="M50">
-        <f>AVERAGE(M2:M47)</f>
+        <f t="shared" si="19"/>
         <v>-9.8871689428043488E-2</v>
       </c>
       <c r="N50">
-        <f>AVERAGE(N2:N47)</f>
+        <f t="shared" si="19"/>
         <v>-0.16725481074999998</v>
       </c>
       <c r="O50">
-        <f>AVERAGE(O2:O47)</f>
+        <f t="shared" si="19"/>
         <v>-0.10599610077391303</v>
       </c>
       <c r="Q50">
@@ -43288,55 +43288,55 @@
         <v>-5.4304387074056572E-18</v>
       </c>
       <c r="V50">
-        <f t="shared" ref="V50:AH50" si="19">AVERAGE(V2:V47)</f>
+        <f t="shared" ref="V50:AH50" si="20">AVERAGE(V2:V47)</f>
         <v>-4.1029981344842739E-17</v>
       </c>
       <c r="W50">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="X50">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>5.792467954566034E-17</v>
       </c>
       <c r="Y50">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Z50">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AA50">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-1.1464259493411943E-17</v>
       </c>
       <c r="AB50">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AC50">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.6894698200817601E-17</v>
       </c>
       <c r="AD50">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-1.8101462358018857E-17</v>
       </c>
       <c r="AE50">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.6894698200817601E-17</v>
       </c>
       <c r="AF50">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.1464259493411943E-17</v>
       </c>
       <c r="AG50">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AH50">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-1.9308226515220113E-17</v>
       </c>
     </row>
